--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D318F8C-DAAE-4BCD-9FFE-DAC9D1696794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F71592-DD44-4E6A-8D4F-61D50A1EAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28995" yWindow="465" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="2" r:id="rId1"/>
@@ -116,6 +116,7 @@
 9：装备重铸
 10：在线时间
 11：回收装备行为
+12：进入组队副本
 </t>
         </r>
       </text>
@@ -246,10 +247,6 @@
     <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
-    <t>关卡试炼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>装备重铸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -308,10 +305,6 @@
   <si>
     <t>TaskDes</t>
     <phoneticPr fontId="50" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1次任意难度的关卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获得宠物</t>
@@ -386,6 +379,14 @@
   </si>
   <si>
     <t>击败3只任意领主级怪物</t>
+  </si>
+  <si>
+    <t>副本试炼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1次任意组队副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11154,25 +11155,25 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="75" borderId="2" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="75" borderId="2" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="2" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="2" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14844,8 +14845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2716BF1A-EAC5-415A-9A26-A4CDD2AAB4EF}">
   <dimension ref="C3:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14892,7 +14893,7 @@
         <v>12</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
@@ -14915,34 +14916,34 @@
         <v>20</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>25</v>
@@ -14954,7 +14955,7 @@
         <v>24</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="3:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15095,7 +15096,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15142,7 +15143,7 @@
         <v>3</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15150,10 +15151,10 @@
         <v>100041</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="14">
         <v>1</v>
@@ -15189,7 +15190,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15197,7 +15198,7 @@
         <v>100051</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="14">
         <v>100005</v>
@@ -15236,7 +15237,7 @@
         <v>10000</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15244,10 +15245,10 @@
         <v>100061</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="14">
         <v>1</v>
@@ -15283,7 +15284,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15294,7 +15295,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
@@ -15330,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15338,10 +15339,10 @@
         <v>100072</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="14">
         <v>1</v>
@@ -15377,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15385,10 +15386,10 @@
         <v>100081</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" s="14">
         <v>1</v>
@@ -15424,7 +15425,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15432,10 +15433,10 @@
         <v>100091</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
@@ -15471,7 +15472,7 @@
         <v>15</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15479,10 +15480,10 @@
         <v>100092</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="14">
         <v>1</v>
@@ -15518,7 +15519,7 @@
         <v>30</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15526,10 +15527,10 @@
         <v>100101</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="14">
         <v>1</v>
@@ -15565,7 +15566,7 @@
         <v>5</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F71592-DD44-4E6A-8D4F-61D50A1EAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5CBF90-8513-4FCE-B7AE-E86F2E760B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28995" yWindow="465" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="2" r:id="rId1"/>
@@ -108,7 +108,7 @@
 1：登陆
 2：打任意怪
 3：打领主级怪
-4：通关任意难度关卡
+4：进入组队副本
 5：消费指定数量金币
 6：制造任意的道具或道具
 7：宠物界面洗炼
@@ -116,7 +116,6 @@
 9：装备重铸
 10：在线时间
 11：回收装备行为
-12：进入组队副本
 </t>
         </r>
       </text>
@@ -14846,7 +14845,7 @@
   <dimension ref="C3:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="G9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5CBF90-8513-4FCE-B7AE-E86F2E760B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26889CBF-BAB9-4874-B8F0-885517556670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14844,8 +14844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2716BF1A-EAC5-415A-9A26-A4CDD2AAB4EF}">
   <dimension ref="C3:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15080,7 +15080,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="17">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>11</v>
@@ -15127,7 +15127,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="17">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>11</v>
@@ -15174,7 +15174,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="17">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>11</v>
@@ -15221,7 +15221,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>11</v>
@@ -15268,7 +15268,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>11</v>
@@ -15315,7 +15315,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>11</v>
@@ -15362,7 +15362,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>11</v>
@@ -15409,7 +15409,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>11</v>
@@ -15456,7 +15456,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="17">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>11</v>
@@ -15503,7 +15503,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="17">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>11</v>
@@ -15550,7 +15550,7 @@
         <v>10</v>
       </c>
       <c r="L17" s="17">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>11</v>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26889CBF-BAB9-4874-B8F0-885517556670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F7AF60-A012-425D-B28D-46172C2B00D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{7E66E277-6CDF-4585-912A-0F365330500C}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{7E66E277-6CDF-4585-912A-0F365330500C}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{F024DE35-E232-4785-8775-53F8377A5749}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{F024DE35-E232-4785-8775-53F8377A5749}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{4512D0B2-A05F-40ED-A6C2-407433B0CCDF}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{4512D0B2-A05F-40ED-A6C2-407433B0CCDF}">
       <text>
         <r>
           <rPr>
@@ -116,6 +116,8 @@
 9：装备重铸
 10：在线时间
 11：回收装备行为
+101： 战场胜利
+102： 战场击杀玩家数量
 </t>
         </r>
       </text>
@@ -136,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -387,12 +389,32 @@
     <t>通关1次任意组队副本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场击杀10人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场击杀玩家10人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +823,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -11115,7 +11144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11173,6 +11202,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14842,28 +14874,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2716BF1A-EAC5-415A-9A26-A4CDD2AAB4EF}">
-  <dimension ref="C3:Q30"/>
+  <dimension ref="C3:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="36" customWidth="1"/>
+    <col min="4" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
@@ -14871,46 +14903,49 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
@@ -14918,46 +14953,49 @@
         <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="3:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
@@ -14974,10 +15012,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>0</v>
@@ -14989,598 +15027,735 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:17" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:18" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="14">
         <v>100011</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
         <v>100001</v>
       </c>
-      <c r="F6" s="14">
+      <c r="G6" s="14">
         <v>1</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="15">
         <v>0</v>
       </c>
-      <c r="H6" s="14">
+      <c r="I6" s="14">
         <v>1</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
       </c>
       <c r="J6" s="14">
         <v>0</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
         <v>10</v>
       </c>
-      <c r="L6" s="17">
+      <c r="M6" s="17">
         <v>1000</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="18">
+      <c r="O6" s="18">
         <v>1</v>
       </c>
-      <c r="O6" s="18">
+      <c r="P6" s="18">
         <v>0</v>
       </c>
-      <c r="P6" s="18">
+      <c r="Q6" s="18">
         <v>1</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:17" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:18" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="14">
         <v>100021</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
         <v>100002</v>
       </c>
-      <c r="F7" s="14">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="15">
         <v>0</v>
       </c>
-      <c r="H7" s="14">
+      <c r="I7" s="14">
         <v>1</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
       </c>
       <c r="J7" s="14">
         <v>0</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
         <v>10</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>1500</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="18">
+      <c r="O7" s="18">
         <v>2</v>
       </c>
-      <c r="O7" s="18">
+      <c r="P7" s="18">
         <v>0</v>
       </c>
-      <c r="P7" s="18">
+      <c r="Q7" s="18">
         <v>30</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="R7" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="14">
         <v>100031</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
         <v>100003</v>
       </c>
-      <c r="F8" s="14">
+      <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="14">
+      <c r="I8" s="14">
         <v>1</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
       </c>
       <c r="J8" s="14">
         <v>0</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
         <v>10</v>
       </c>
-      <c r="L8" s="17">
+      <c r="M8" s="17">
         <v>5000</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="19">
+      <c r="O8" s="19">
         <v>3</v>
       </c>
-      <c r="O8" s="19">
+      <c r="P8" s="19">
         <v>0</v>
       </c>
-      <c r="P8" s="19">
+      <c r="Q8" s="19">
         <v>3</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="R8" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="14">
         <v>100041</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="15">
+      <c r="H9" s="15">
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="I9" s="14">
         <v>1</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
       </c>
       <c r="J9" s="14">
         <v>0</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
         <v>10</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M9" s="17">
         <v>5000</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="19">
+      <c r="O9" s="19">
         <v>4</v>
       </c>
-      <c r="O9" s="19">
+      <c r="P9" s="19">
         <v>0</v>
       </c>
-      <c r="P9" s="19">
+      <c r="Q9" s="19">
         <v>1</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="R9" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="14">
         <v>100051</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
         <v>100005</v>
       </c>
-      <c r="F10" s="14">
+      <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H10" s="16">
         <v>0</v>
       </c>
-      <c r="H10" s="20">
+      <c r="I10" s="20">
         <v>1</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
       </c>
       <c r="J10" s="14">
         <v>0</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
         <v>10</v>
       </c>
-      <c r="L10" s="17">
+      <c r="M10" s="17">
         <v>2000</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="18">
+      <c r="O10" s="18">
         <v>5</v>
       </c>
-      <c r="O10" s="18">
+      <c r="P10" s="18">
         <v>0</v>
       </c>
-      <c r="P10" s="18">
+      <c r="Q10" s="18">
         <v>10000</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="R10" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="14">
         <v>100061</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="14">
+      <c r="G11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="16">
+      <c r="H11" s="16">
         <v>0</v>
       </c>
-      <c r="H11" s="20">
+      <c r="I11" s="20">
         <v>1</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
       </c>
       <c r="J11" s="14">
         <v>0</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
         <v>10</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M11" s="17">
         <v>2000</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="19">
+      <c r="O11" s="19">
         <v>6</v>
       </c>
-      <c r="O11" s="12">
+      <c r="P11" s="12">
         <v>0</v>
       </c>
-      <c r="P11" s="19">
+      <c r="Q11" s="19">
         <v>1</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="R11" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="14">
         <v>100071</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="14">
+      <c r="G12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="16">
+      <c r="H12" s="16">
         <v>100072</v>
       </c>
-      <c r="H12" s="14">
+      <c r="I12" s="14">
         <v>0.5</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
       </c>
       <c r="J12" s="14">
         <v>0</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
         <v>10</v>
       </c>
-      <c r="L12" s="17">
+      <c r="M12" s="17">
         <v>2000</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="18">
+      <c r="O12" s="18">
         <v>7</v>
       </c>
-      <c r="O12" s="18">
+      <c r="P12" s="18">
         <v>0</v>
       </c>
-      <c r="P12" s="18">
+      <c r="Q12" s="18">
         <v>1</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="R12" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="14">
         <v>100072</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="14">
+      <c r="G13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="16">
+      <c r="H13" s="16">
         <v>0</v>
       </c>
-      <c r="H13" s="20">
+      <c r="I13" s="20">
         <v>1</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
       </c>
       <c r="J13" s="14">
         <v>0</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
         <v>10</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>2000</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="18">
+      <c r="O13" s="18">
         <v>8</v>
       </c>
-      <c r="O13" s="18">
+      <c r="P13" s="18">
         <v>0</v>
       </c>
-      <c r="P13" s="18">
+      <c r="Q13" s="18">
         <v>1</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="R13" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="14">
         <v>100081</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="14">
+      <c r="G14" s="14">
         <v>1</v>
       </c>
-      <c r="G14" s="16">
+      <c r="H14" s="16">
         <v>0</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I14" s="20">
         <v>1</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
       </c>
       <c r="J14" s="14">
         <v>0</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
         <v>10</v>
       </c>
-      <c r="L14" s="17">
+      <c r="M14" s="17">
         <v>2000</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="18">
+      <c r="O14" s="18">
         <v>9</v>
       </c>
-      <c r="O14" s="18">
+      <c r="P14" s="18">
         <v>0</v>
       </c>
-      <c r="P14" s="18">
+      <c r="Q14" s="18">
         <v>1</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="R14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="14">
         <v>100091</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="14">
+      <c r="G15" s="14">
         <v>1</v>
       </c>
-      <c r="G15" s="16">
+      <c r="H15" s="16">
         <v>100092</v>
       </c>
-      <c r="H15" s="20">
+      <c r="I15" s="20">
         <v>0.5</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
       </c>
       <c r="J15" s="14">
         <v>0</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17">
         <v>10</v>
       </c>
-      <c r="L15" s="17">
+      <c r="M15" s="17">
         <v>10000</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="19">
+      <c r="O15" s="19">
         <v>10</v>
       </c>
-      <c r="O15" s="19">
+      <c r="P15" s="19">
         <v>0</v>
       </c>
-      <c r="P15" s="19">
+      <c r="Q15" s="19">
         <v>15</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="R15" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="14">
         <v>100092</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="14">
+      <c r="G16" s="14">
         <v>1</v>
       </c>
-      <c r="G16" s="15">
+      <c r="H16" s="15">
         <v>0</v>
       </c>
-      <c r="H16" s="14">
+      <c r="I16" s="14">
         <v>1</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
       </c>
       <c r="J16" s="14">
         <v>0</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
         <v>10</v>
       </c>
-      <c r="L16" s="17">
+      <c r="M16" s="17">
         <v>10000</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="19">
+      <c r="O16" s="19">
         <v>10</v>
       </c>
-      <c r="O16" s="19">
+      <c r="P16" s="19">
         <v>0</v>
       </c>
-      <c r="P16" s="19">
+      <c r="Q16" s="19">
         <v>30</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="R16" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="14">
         <v>100101</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="14">
+      <c r="G17" s="14">
         <v>1</v>
       </c>
-      <c r="G17" s="16">
+      <c r="H17" s="16">
         <v>0</v>
       </c>
-      <c r="H17" s="20">
+      <c r="I17" s="20">
         <v>1</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
       </c>
       <c r="J17" s="14">
         <v>0</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
         <v>10</v>
       </c>
-      <c r="L17" s="17">
+      <c r="M17" s="17">
         <v>5000</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="18">
+      <c r="O17" s="18">
         <v>11</v>
       </c>
-      <c r="O17" s="18">
+      <c r="P17" s="18">
         <v>0</v>
       </c>
-      <c r="P17" s="18">
+      <c r="Q17" s="18">
         <v>5</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="R17" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="14">
+        <v>200001</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="21">
+        <v>2</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <v>10</v>
+      </c>
+      <c r="M18" s="17">
+        <v>10000</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="19">
+        <v>101</v>
+      </c>
+      <c r="P18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>1</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="14">
+        <v>200002</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="21">
+        <v>2</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
+        <v>10</v>
+      </c>
+      <c r="M19" s="17">
+        <v>5000</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="18">
+        <v>102</v>
+      </c>
+      <c r="P19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>10</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE67768C-D658-4930-80E7-0B20ABCF8330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEE306C-E03B-40A1-9351-DF97668496C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -88,17 +88,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">1：角色等级某级触发
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2：国家等级某级触发</t>
+          <t>1：角色等级某级触发</t>
         </r>
       </text>
     </comment>
@@ -14306,8 +14296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14798,10 +14788,10 @@
         <v>0.5</v>
       </c>
       <c r="J12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L12" s="11">
         <v>10</v>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEE306C-E03B-40A1-9351-DF97668496C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820C06A-0A53-40A5-A0C9-C26A4E6C20ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,12 +355,6 @@
     <t>NextTask</t>
   </si>
   <si>
-    <t>TriggerPro</t>
-  </si>
-  <si>
-    <t>TriggerType</t>
-  </si>
-  <si>
     <t>TriggerValue</t>
   </si>
   <si>
@@ -536,6 +530,14 @@
   </si>
   <si>
     <t>参与战场活动,并在战场中存活时间超过1分钟</t>
+  </si>
+  <si>
+    <t>TriggerPro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14297,7 +14299,7 @@
   <dimension ref="C3:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14385,84 +14387,84 @@
         <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14470,7 +14472,7 @@
         <v>100011</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -14500,7 +14502,7 @@
         <v>3000</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O6" s="13">
         <v>1</v>
@@ -14512,7 +14514,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14520,7 +14522,7 @@
         <v>100021</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -14550,7 +14552,7 @@
         <v>4500</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O7" s="13">
         <v>2</v>
@@ -14562,7 +14564,7 @@
         <v>30</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14570,7 +14572,7 @@
         <v>100031</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -14600,7 +14602,7 @@
         <v>15000</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O8" s="14">
         <v>3</v>
@@ -14612,7 +14614,7 @@
         <v>3</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14620,13 +14622,13 @@
         <v>100041</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -14650,7 +14652,7 @@
         <v>15000</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O9" s="14">
         <v>4</v>
@@ -14662,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14670,7 +14672,7 @@
         <v>100051</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -14700,7 +14702,7 @@
         <v>6000</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O10" s="13">
         <v>5</v>
@@ -14712,7 +14714,7 @@
         <v>10000</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14720,13 +14722,13 @@
         <v>100061</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -14750,7 +14752,7 @@
         <v>6000</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O11" s="14">
         <v>6</v>
@@ -14762,7 +14764,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14770,13 +14772,13 @@
         <v>100071</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -14800,7 +14802,7 @@
         <v>6000</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="13">
         <v>7</v>
@@ -14812,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14820,13 +14822,13 @@
         <v>100072</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -14850,7 +14852,7 @@
         <v>6000</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O13" s="13">
         <v>8</v>
@@ -14862,7 +14864,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14870,13 +14872,13 @@
         <v>100081</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7">
         <v>1</v>
@@ -14900,7 +14902,7 @@
         <v>6000</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O14" s="13">
         <v>9</v>
@@ -14912,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14920,13 +14922,13 @@
         <v>100091</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7">
         <v>1</v>
@@ -14950,7 +14952,7 @@
         <v>30000</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O15" s="14">
         <v>10</v>
@@ -14962,7 +14964,7 @@
         <v>15</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14970,13 +14972,13 @@
         <v>100092</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -15000,7 +15002,7 @@
         <v>30000</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O16" s="14">
         <v>10</v>
@@ -15012,7 +15014,7 @@
         <v>30</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15020,13 +15022,13 @@
         <v>100101</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -15050,7 +15052,7 @@
         <v>15000</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O17" s="13">
         <v>11</v>
@@ -15062,7 +15064,7 @@
         <v>5</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15070,7 +15072,7 @@
         <v>200001</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
@@ -15100,7 +15102,7 @@
         <v>30000</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O18" s="14">
         <v>101</v>
@@ -15112,7 +15114,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15120,7 +15122,7 @@
         <v>200002</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="7">
         <v>2</v>
@@ -15150,7 +15152,7 @@
         <v>10000</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O19" s="13">
         <v>102</v>
@@ -15162,7 +15164,7 @@
         <v>1</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15170,7 +15172,7 @@
         <v>200003</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="7">
         <v>2</v>
@@ -15200,7 +15202,7 @@
         <v>10000</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O20" s="13">
         <v>102</v>
@@ -15212,7 +15214,7 @@
         <v>3</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15220,7 +15222,7 @@
         <v>200004</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -15250,7 +15252,7 @@
         <v>10000</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="13">
         <v>102</v>
@@ -15262,7 +15264,7 @@
         <v>5</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15270,7 +15272,7 @@
         <v>200005</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="7">
         <v>2</v>
@@ -15300,7 +15302,7 @@
         <v>20000</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O22" s="13">
         <v>102</v>
@@ -15312,7 +15314,7 @@
         <v>10</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15320,7 +15322,7 @@
         <v>200006</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="7">
         <v>2</v>
@@ -15350,7 +15352,7 @@
         <v>30000</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O23" s="13">
         <v>102</v>
@@ -15362,7 +15364,7 @@
         <v>15</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15370,7 +15372,7 @@
         <v>200007</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="7">
         <v>2</v>
@@ -15400,7 +15402,7 @@
         <v>50000</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O24" s="13">
         <v>102</v>
@@ -15412,7 +15414,7 @@
         <v>20</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15420,7 +15422,7 @@
         <v>200011</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" s="7">
         <v>2</v>
@@ -15450,7 +15452,7 @@
         <v>10000</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O25" s="14">
         <v>103</v>
@@ -15462,7 +15464,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820C06A-0A53-40A5-A0C9-C26A4E6C20ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BD301B-3906-4038-84C0-1B4A2CCD8D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -112,165 +112,26 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1：登陆
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2：打任意怪
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3：打领主级怪
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">4：进入组队副本
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">5：消费指定数量金币
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">6：制造任意的道具或道具
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">7：宠物界面洗炼
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">8：获得宠物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">9：装备重铸
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">10：在线时间
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">11：回收装备行为
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">101： 战场胜利
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">102： 战场击杀玩家数量
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">103:  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在战场中存在多少分钟</t>
+1：登陆
+2：打任意怪
+3：打领主级怪
+4：进入组队副本
+5：消费指定数量金币
+6：制造任意的道具或道具
+7：宠物界面洗炼
+8：获得宠物
+9：装备重铸
+10：在线时间
+11：回收装备行为
+12：进入试炼之地
+13：进入挑战之地
+14：赏金任务完成次数
+15：拍卖行上架道具
+16：幸运探宝（抽奖）次数
+17：使用鉴定符鉴定一件装备
+101： 战场胜利
+102： 战场击杀玩家数量
+103:  在战场中存在多少分钟</t>
         </r>
       </text>
     </comment>
@@ -290,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>Id</t>
   </si>
@@ -421,9 +282,6 @@
     <t>消费金币</t>
   </si>
   <si>
-    <t>消费10000金币</t>
-  </si>
-  <si>
     <t>制造装备</t>
   </si>
   <si>
@@ -470,9 +328,6 @@
   </si>
   <si>
     <t>装备回收</t>
-  </si>
-  <si>
-    <t>100010</t>
   </si>
   <si>
     <t>装备回收5件装备</t>
@@ -537,6 +392,50 @@
   </si>
   <si>
     <t>TriggerType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费100000金币</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼之地</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战之地</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过主城进入试炼之地进行探险</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过主城进入挑战之地进行探险</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>地精商人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在拍卖行上架出售1件物品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金专家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主城赏金猎人处完成3个赏金任务</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备鉴定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用鉴定符鉴定1件装备</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14296,10 +14195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:R36"/>
+  <dimension ref="C3:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14387,10 +14286,10 @@
         <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>21</v>
@@ -14496,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M6" s="2">
         <v>3000</v>
@@ -14683,11 +14582,11 @@
       <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="9">
-        <v>0</v>
+      <c r="H10" s="7">
+        <v>100052</v>
       </c>
       <c r="I10" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -14711,24 +14610,24 @@
         <v>0</v>
       </c>
       <c r="Q10" s="13">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
-        <v>100061</v>
+        <v>100052</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
+      <c r="F11" s="7">
+        <v>100052</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -14754,46 +14653,46 @@
       <c r="N11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="14">
-        <v>6</v>
-      </c>
-      <c r="P11" s="15">
+      <c r="O11" s="13">
+        <v>14</v>
+      </c>
+      <c r="P11" s="13">
         <v>0</v>
       </c>
-      <c r="Q11" s="14">
-        <v>1</v>
+      <c r="Q11" s="13">
+        <v>3</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
-        <v>100071</v>
+        <v>100061</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="9">
-        <v>100072</v>
+      <c r="H12" s="7">
+        <v>100062</v>
       </c>
       <c r="I12" s="7">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L12" s="11">
         <v>10</v>
@@ -14804,31 +14703,31 @@
       <c r="N12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="13">
-        <v>7</v>
-      </c>
-      <c r="P12" s="13">
+      <c r="O12" s="14">
+        <v>6</v>
+      </c>
+      <c r="P12" s="15">
         <v>0</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="14">
         <v>1</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
-        <v>100072</v>
+        <v>100062</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>48</v>
+      <c r="F13" s="7">
+        <v>100062</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -14854,46 +14753,46 @@
       <c r="N13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="13">
-        <v>8</v>
-      </c>
-      <c r="P13" s="13">
+      <c r="O13" s="14">
+        <v>17</v>
+      </c>
+      <c r="P13" s="15">
         <v>0</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="14">
         <v>1</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
-        <v>100081</v>
+        <v>100071</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7">
         <v>1</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>100072</v>
       </c>
       <c r="I14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="7">
         <v>1</v>
       </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
       <c r="K14" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L14" s="11">
         <v>10</v>
@@ -14905,7 +14804,7 @@
         <v>33</v>
       </c>
       <c r="O14" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P14" s="13">
         <v>0</v>
@@ -14914,30 +14813,30 @@
         <v>1</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
-        <v>100091</v>
+        <v>100072</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7">
         <v>1</v>
       </c>
       <c r="H15" s="9">
-        <v>100092</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
@@ -14949,36 +14848,36 @@
         <v>10</v>
       </c>
       <c r="M15" s="2">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="14">
-        <v>10</v>
-      </c>
-      <c r="P15" s="14">
+      <c r="O15" s="13">
+        <v>8</v>
+      </c>
+      <c r="P15" s="13">
         <v>0</v>
       </c>
-      <c r="Q15" s="14">
-        <v>15</v>
+      <c r="Q15" s="13">
+        <v>1</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="7">
-        <v>100092</v>
+        <v>100081</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -14999,45 +14898,45 @@
         <v>10</v>
       </c>
       <c r="M16" s="2">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="14">
-        <v>10</v>
-      </c>
-      <c r="P16" s="14">
+      <c r="O16" s="13">
+        <v>9</v>
+      </c>
+      <c r="P16" s="13">
         <v>0</v>
       </c>
-      <c r="Q16" s="14">
-        <v>30</v>
+      <c r="Q16" s="13">
+        <v>1</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="7">
-        <v>100101</v>
+        <v>100091</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="9">
-        <v>0</v>
+        <v>100092</v>
       </c>
       <c r="I17" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
@@ -15049,36 +14948,36 @@
         <v>10</v>
       </c>
       <c r="M17" s="2">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="13">
-        <v>11</v>
-      </c>
-      <c r="P17" s="13">
+      <c r="O17" s="14">
+        <v>10</v>
+      </c>
+      <c r="P17" s="14">
         <v>0</v>
       </c>
-      <c r="Q17" s="13">
-        <v>5</v>
+      <c r="Q17" s="14">
+        <v>15</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="7">
-        <v>200001</v>
+        <v>100092</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E18" s="7">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7">
-        <v>100011</v>
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -15096,48 +14995,48 @@
         <v>0</v>
       </c>
       <c r="L18" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M18" s="2">
         <v>30000</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="O18" s="14">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="P18" s="14">
         <v>0</v>
       </c>
       <c r="Q18" s="14">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="7">
-        <v>200002</v>
+        <v>100101</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="7">
-        <v>100014</v>
+        <v>100010</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
       </c>
-      <c r="H19" s="9">
-        <v>0</v>
+      <c r="H19" s="7">
+        <v>100102</v>
       </c>
       <c r="I19" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
@@ -15146,39 +15045,39 @@
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M19" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="O19" s="13">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="P19" s="13">
         <v>0</v>
       </c>
       <c r="Q19" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="7">
-        <v>200003</v>
+        <v>100102</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="7">
-        <v>100014</v>
+        <v>100102</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
@@ -15196,44 +15095,44 @@
         <v>0</v>
       </c>
       <c r="L20" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M20" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="O20" s="13">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="P20" s="13">
         <v>0</v>
       </c>
       <c r="Q20" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="7">
-        <v>200004</v>
+        <v>100111</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
-        <v>100015</v>
+        <v>100111</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7">
@@ -15246,39 +15145,39 @@
         <v>0</v>
       </c>
       <c r="L21" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="O21" s="13">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="P21" s="13">
         <v>0</v>
       </c>
       <c r="Q21" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7">
-        <v>200005</v>
+        <v>100121</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="7">
-        <v>100015</v>
+        <v>100121</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
@@ -15296,44 +15195,44 @@
         <v>0</v>
       </c>
       <c r="L22" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M22" s="2">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="O22" s="13">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="P22" s="13">
         <v>0</v>
       </c>
       <c r="Q22" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7">
-        <v>200006</v>
+        <v>200001</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E23" s="7">
         <v>2</v>
       </c>
       <c r="F23" s="7">
-        <v>100016</v>
+        <v>100011</v>
       </c>
       <c r="G23" s="7">
         <v>1</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7">
@@ -15352,33 +15251,33 @@
         <v>30000</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O23" s="13">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P23" s="13">
         <v>0</v>
       </c>
       <c r="Q23" s="13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="7">
-        <v>200007</v>
+        <v>200002</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E24" s="7">
         <v>2</v>
       </c>
       <c r="F24" s="7">
-        <v>100016</v>
+        <v>100014</v>
       </c>
       <c r="G24" s="7">
         <v>1</v>
@@ -15399,10 +15298,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O24" s="13">
         <v>102</v>
@@ -15411,24 +15310,24 @@
         <v>0</v>
       </c>
       <c r="Q24" s="13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="7">
-        <v>200011</v>
+        <v>200003</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E25" s="7">
         <v>2</v>
       </c>
       <c r="F25" s="7">
-        <v>100006</v>
+        <v>100014</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -15452,47 +15351,297 @@
         <v>10000</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O25" s="14">
+        <v>64</v>
+      </c>
+      <c r="O25" s="13">
+        <v>102</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>3</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="7">
+        <v>200004</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>100015</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="13">
+        <v>102</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>5</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="7">
+        <v>200005</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>100015</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>20000</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" s="13">
+        <v>102</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>10</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="7">
+        <v>200006</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>100016</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="13">
+        <v>102</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>15</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="7">
+        <v>200007</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7">
+        <v>100016</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O29" s="13">
+        <v>102</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>20</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="7">
+        <v>200011</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7">
+        <v>100006</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30" s="14">
         <v>103</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P30" s="14">
         <v>0</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q30" s="14">
         <v>1</v>
       </c>
-      <c r="R25" s="16" t="s">
-        <v>79</v>
+      <c r="R30" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="26" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="J31" s="3"/>
-      <c r="M31" s="3"/>
+    <row r="31" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J36" s="3"/>
+      <c r="M36" s="3"/>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="J32" s="3"/>
-      <c r="M32" s="3"/>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J37" s="3"/>
+      <c r="M37" s="3"/>
     </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J33" s="3"/>
-      <c r="M33" s="3"/>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J38" s="3"/>
+      <c r="M38" s="3"/>
     </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J34" s="3"/>
-      <c r="M34" s="3"/>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J39" s="3"/>
+      <c r="M39" s="3"/>
     </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="M35" s="3"/>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="M40" s="3"/>
     </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="M36" s="3"/>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="M41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BD301B-3906-4038-84C0-1B4A2CCD8D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947E505E-6CFE-46E3-ABB2-DD318A1269CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
   <si>
     <t>Id</t>
   </si>
@@ -384,9 +384,6 @@
     <t>小试牛刀</t>
   </si>
   <si>
-    <t>参与战场活动,并在战场中存活时间超过1分钟</t>
-  </si>
-  <si>
     <t>TriggerPro</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -436,6 +433,22 @@
   </si>
   <si>
     <t>使用鉴定符鉴定1件装备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与战场活动,并在战场中存活时间超过5分钟</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者无敌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场击败敌对阵营玩家30人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011006;1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14195,10 +14208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:R41"/>
+  <dimension ref="C3:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14286,10 +14299,10 @@
         <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>21</v>
@@ -14613,7 +14626,7 @@
         <v>100000</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14621,7 +14634,7 @@
         <v>100052</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -14663,7 +14676,7 @@
         <v>3</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14721,7 +14734,7 @@
         <v>100062</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -14763,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15071,7 +15084,7 @@
         <v>100102</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -15113,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15121,7 +15134,7 @@
         <v>100111</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
@@ -15163,7 +15176,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15171,7 +15184,7 @@
         <v>100121</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -15213,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15298,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>64</v>
@@ -15348,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N25" s="12" t="s">
         <v>64</v>
@@ -15398,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>61</v>
@@ -15448,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>61</v>
@@ -15548,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="N29" s="12" t="s">
         <v>61</v>
@@ -15568,16 +15581,16 @@
     </row>
     <row r="30" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="7">
-        <v>200011</v>
+        <v>200008</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
       </c>
       <c r="F30" s="7">
-        <v>100006</v>
+        <v>100016</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -15598,33 +15611,79 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O30" s="13">
+        <v>102</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>30</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="7">
+        <v>200011</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="7">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7">
+        <v>100006</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N31" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O31" s="14">
         <v>103</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P31" s="14">
         <v>0</v>
       </c>
-      <c r="Q30" s="14">
-        <v>1</v>
-      </c>
-      <c r="R30" s="16" t="s">
-        <v>77</v>
+      <c r="Q31" s="14">
+        <v>5</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="31" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J36" s="3"/>
-      <c r="M36" s="3"/>
-    </row>
+    <row r="36" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="10:13" x14ac:dyDescent="0.15">
       <c r="J37" s="3"/>
       <c r="M37" s="3"/>
@@ -15638,10 +15697,14 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="J40" s="3"/>
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.15">
       <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="10:13" x14ac:dyDescent="0.15">
+      <c r="M42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947E505E-6CFE-46E3-ABB2-DD318A1269CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CE467B-D1B4-4B80-A840-CDA4692B9059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,8 @@
 17：使用鉴定符鉴定一件装备
 101： 战场胜利
 102： 战场击杀玩家数量
-103:  在战场中存在多少分钟</t>
+103:  在战场中存在多少分钟
+104:  战场死亡次数</t>
         </r>
       </text>
     </comment>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
   <si>
     <t>Id</t>
   </si>
@@ -449,6 +450,26 @@
   </si>
   <si>
     <t>10011006;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈之魂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧之躯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010035;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场被其他玩家击败10次仍坚持战斗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场被其他玩家击败3次仍坚持战斗</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14208,10 +14229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:R42"/>
+  <dimension ref="C3:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15631,16 +15652,16 @@
     </row>
     <row r="31" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="7">
-        <v>200011</v>
+        <v>200009</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E31" s="7">
         <v>2</v>
       </c>
       <c r="F31" s="7">
-        <v>100006</v>
+        <v>100111</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
@@ -15661,50 +15682,150 @@
         <v>0</v>
       </c>
       <c r="M31" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O31" s="13">
+        <v>102</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>3</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="7">
+        <v>200010</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7">
+        <v>100121</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="13">
+        <v>102</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>10</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="7">
+        <v>200011</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7">
+        <v>100006</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
         <v>50000</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="N33" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O33" s="14">
         <v>103</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P33" s="14">
         <v>0</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="Q33" s="14">
         <v>5</v>
       </c>
-      <c r="R31" s="16" t="s">
+      <c r="R33" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="10:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.15">
-      <c r="J38" s="3"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.15">
       <c r="J39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.15">
       <c r="J40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="J41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="10:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="J42" s="3"/>
       <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="M44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7D872D-AA41-405E-B947-321D74185347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB3CA4-5DBA-4DEA-B14D-7C96659AD695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>100007</t>
   </si>
   <si>
-    <t>在宠物界面洗炼1次宠物</t>
-  </si>
-  <si>
     <t>获得宠物</t>
   </si>
   <si>
@@ -454,6 +451,10 @@
   </si>
   <si>
     <t>在家园烹饪处制造一个烹饪物品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在宠物重塑界面给宠物使用1次道具</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14215,8 +14216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14831,7 +14832,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14839,7 +14840,7 @@
         <v>100072</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
@@ -14881,7 +14882,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14889,13 +14890,13 @@
         <v>100081</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -14931,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14939,13 +14940,13 @@
         <v>100091</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -14981,7 +14982,7 @@
         <v>15</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14989,13 +14990,13 @@
         <v>100092</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -15031,7 +15032,7 @@
         <v>30</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15039,7 +15040,7 @@
         <v>100101</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -15081,7 +15082,7 @@
         <v>5</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15089,7 +15090,7 @@
         <v>100102</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -15131,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15139,7 +15140,7 @@
         <v>100103</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
@@ -15181,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15189,7 +15190,7 @@
         <v>100111</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -15231,7 +15232,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15239,7 +15240,7 @@
         <v>100121</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -15281,7 +15282,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15289,7 +15290,7 @@
         <v>200001</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="7">
         <v>2</v>
@@ -15319,7 +15320,7 @@
         <v>30000</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="13">
         <v>101</v>
@@ -15331,7 +15332,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15339,7 +15340,7 @@
         <v>200002</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="7">
         <v>2</v>
@@ -15369,7 +15370,7 @@
         <v>30000</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="13">
         <v>102</v>
@@ -15381,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15389,7 +15390,7 @@
         <v>200003</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="7">
         <v>2</v>
@@ -15419,7 +15420,7 @@
         <v>30000</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="13">
         <v>102</v>
@@ -15431,7 +15432,7 @@
         <v>3</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15439,7 +15440,7 @@
         <v>200004</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="7">
         <v>2</v>
@@ -15469,7 +15470,7 @@
         <v>30000</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O27" s="13">
         <v>102</v>
@@ -15481,7 +15482,7 @@
         <v>5</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15489,7 +15490,7 @@
         <v>200005</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="7">
         <v>2</v>
@@ -15519,7 +15520,7 @@
         <v>30000</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O28" s="13">
         <v>102</v>
@@ -15531,7 +15532,7 @@
         <v>10</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15539,7 +15540,7 @@
         <v>200006</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" s="7">
         <v>2</v>
@@ -15569,7 +15570,7 @@
         <v>30000</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O29" s="13">
         <v>102</v>
@@ -15581,7 +15582,7 @@
         <v>15</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15589,7 +15590,7 @@
         <v>200007</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
@@ -15619,7 +15620,7 @@
         <v>30000</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O30" s="13">
         <v>102</v>
@@ -15631,7 +15632,7 @@
         <v>20</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15639,7 +15640,7 @@
         <v>200008</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="7">
         <v>2</v>
@@ -15669,7 +15670,7 @@
         <v>30000</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O31" s="13">
         <v>102</v>
@@ -15681,7 +15682,7 @@
         <v>30</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15689,7 +15690,7 @@
         <v>200009</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="7">
         <v>2</v>
@@ -15719,7 +15720,7 @@
         <v>30000</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O32" s="13">
         <v>102</v>
@@ -15731,7 +15732,7 @@
         <v>3</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15739,7 +15740,7 @@
         <v>200010</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
@@ -15769,7 +15770,7 @@
         <v>30000</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O33" s="13">
         <v>102</v>
@@ -15781,7 +15782,7 @@
         <v>10</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15789,7 +15790,7 @@
         <v>200011</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="7">
         <v>2</v>
@@ -15819,7 +15820,7 @@
         <v>50000</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O34" s="14">
         <v>103</v>
@@ -15831,7 +15832,7 @@
         <v>5</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB3CA4-5DBA-4DEA-B14D-7C96659AD695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3767B490-1181-4173-992C-E2A9F7319010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,9 +344,6 @@
     <t>在线时间超过15分钟</t>
   </si>
   <si>
-    <t>在线时间超过30分钟</t>
-  </si>
-  <si>
     <t>装备回收</t>
   </si>
   <si>
@@ -455,6 +452,10 @@
   </si>
   <si>
     <t>在宠物重塑界面给宠物使用1次道具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线时间超过20分钟</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14217,7 +14218,7 @@
   <dimension ref="C3:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14832,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15029,10 +15030,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15040,7 +15041,7 @@
         <v>100101</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -15082,7 +15083,7 @@
         <v>5</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15090,7 +15091,7 @@
         <v>100102</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -15132,7 +15133,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15140,7 +15141,7 @@
         <v>100103</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
@@ -15182,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15190,7 +15191,7 @@
         <v>100111</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -15232,7 +15233,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15240,7 +15241,7 @@
         <v>100121</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -15282,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15290,7 +15291,7 @@
         <v>200001</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="7">
         <v>2</v>
@@ -15320,7 +15321,7 @@
         <v>30000</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="13">
         <v>101</v>
@@ -15332,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15340,7 +15341,7 @@
         <v>200002</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="7">
         <v>2</v>
@@ -15370,7 +15371,7 @@
         <v>30000</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="13">
         <v>102</v>
@@ -15382,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15390,7 +15391,7 @@
         <v>200003</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="7">
         <v>2</v>
@@ -15420,7 +15421,7 @@
         <v>30000</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="13">
         <v>102</v>
@@ -15432,7 +15433,7 @@
         <v>3</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15440,7 +15441,7 @@
         <v>200004</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="7">
         <v>2</v>
@@ -15470,7 +15471,7 @@
         <v>30000</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O27" s="13">
         <v>102</v>
@@ -15482,7 +15483,7 @@
         <v>5</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15490,7 +15491,7 @@
         <v>200005</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="7">
         <v>2</v>
@@ -15520,7 +15521,7 @@
         <v>30000</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O28" s="13">
         <v>102</v>
@@ -15532,7 +15533,7 @@
         <v>10</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15540,7 +15541,7 @@
         <v>200006</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="7">
         <v>2</v>
@@ -15570,7 +15571,7 @@
         <v>30000</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O29" s="13">
         <v>102</v>
@@ -15582,7 +15583,7 @@
         <v>15</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15590,7 +15591,7 @@
         <v>200007</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
@@ -15620,7 +15621,7 @@
         <v>30000</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O30" s="13">
         <v>102</v>
@@ -15632,7 +15633,7 @@
         <v>20</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15640,7 +15641,7 @@
         <v>200008</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="7">
         <v>2</v>
@@ -15670,7 +15671,7 @@
         <v>30000</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O31" s="13">
         <v>102</v>
@@ -15682,7 +15683,7 @@
         <v>30</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15690,7 +15691,7 @@
         <v>200009</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="7">
         <v>2</v>
@@ -15720,7 +15721,7 @@
         <v>30000</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O32" s="13">
         <v>102</v>
@@ -15732,7 +15733,7 @@
         <v>3</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15740,7 +15741,7 @@
         <v>200010</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
@@ -15770,7 +15771,7 @@
         <v>30000</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O33" s="13">
         <v>102</v>
@@ -15782,7 +15783,7 @@
         <v>10</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15790,7 +15791,7 @@
         <v>200011</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="7">
         <v>2</v>
@@ -15820,7 +15821,7 @@
         <v>50000</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O34" s="14">
         <v>103</v>
@@ -15832,7 +15833,7 @@
         <v>5</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3767B490-1181-4173-992C-E2A9F7319010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08EE2E4-32AF-4796-9C8D-608BBD64F36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,39 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Admin</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{EB2CB954-EA23-4A83-A3C5-AA95CE9D0619}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ public const int Country = 1;    //活跃任务
+ public const int Battle = 2;     //战场任务
+ public const int ShowLie = 3;    //狩猎任务</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +162,8 @@
 101： 战场胜利
 102： 战场击杀玩家数量
 103:  在战场中存在多少分钟
-104:  战场死亡次数</t>
+104:  战场死亡次数
+201： 狩猎怪物数量</t>
         </r>
       </text>
     </comment>
@@ -153,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
   <si>
     <t>Id</t>
   </si>
@@ -458,12 +488,28 @@
     <t>在线时间超过20分钟</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>狩猎10只怪</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎30只怪</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎十个怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎三十个怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +656,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="51">
@@ -14217,8 +14278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15786,7 +15847,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="7">
         <v>200011</v>
       </c>
@@ -15836,8 +15897,106 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="7">
+        <v>300001</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="7">
+        <v>3</v>
+      </c>
+      <c r="F35" s="7">
+        <v>100014</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O35" s="13">
+        <v>202</v>
+      </c>
+      <c r="P35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>10</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="7">
+        <v>300002</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3</v>
+      </c>
+      <c r="F36" s="7">
+        <v>100014</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="13">
+        <v>201</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>30</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="37" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08EE2E4-32AF-4796-9C8D-608BBD64F36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B8E143-0323-47FA-B50F-FA8C1CADFEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>Id</t>
   </si>
@@ -489,19 +489,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>狩猎10只怪</t>
+    <t>狩猎100只怪</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>狩猎30只怪</t>
+    <t>狩猎200只怪</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>狩猎十个怪物</t>
+    <t>狩猎300只怪</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>狩猎三十个怪物</t>
+    <t>狩猎500只怪</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎100个怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎200个怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎300个怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎500个怪物</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14278,8 +14298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15929,10 +15949,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="O35" s="13">
         <v>202</v>
@@ -15944,7 +15964,7 @@
         <v>10</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -15979,10 +15999,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="O36" s="13">
         <v>201</v>
@@ -15994,11 +16014,109 @@
         <v>30</v>
       </c>
       <c r="R36" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="7">
+        <v>300003</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="7">
+        <v>3</v>
+      </c>
+      <c r="F37" s="7">
+        <v>100014</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O37" s="13">
+        <v>202</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>10</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="7">
+        <v>300004</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>103</v>
       </c>
+      <c r="E38" s="7">
+        <v>3</v>
+      </c>
+      <c r="F38" s="7">
+        <v>100014</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O38" s="13">
+        <v>201</v>
+      </c>
+      <c r="P38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>30</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="37" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="3:18" x14ac:dyDescent="0.15">
       <c r="J40" s="3"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B8E143-0323-47FA-B50F-FA8C1CADFEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C9A69D-0BCC-4F42-A245-ED91E10CD1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -22,39 +22,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Admin</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{EB2CB954-EA23-4A83-A3C5-AA95CE9D0619}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
- public const int Country = 1;    //活跃任务
- public const int Battle = 2;     //战场任务
- public const int ShowLie = 3;    //狩猎任务</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +134,8 @@
 102： 战场击杀玩家数量
 103:  在战场中存在多少分钟
 104:  战场死亡次数
-201： 狩猎怪物数量</t>
+201： 狩猎怪物数量
+301： 家族战击杀玩家数量</t>
         </r>
       </text>
     </comment>
@@ -183,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
   <si>
     <t>Id</t>
   </si>
@@ -524,12 +496,20 @@
     <t>狩猎500个怪物</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>击败敌方5人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败敌方10人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,21 +656,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="51">
@@ -10655,7 +10620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10700,8 +10665,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1569" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1569" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3226">
@@ -14298,8 +14272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14314,7 +14288,7 @@
     <col min="12" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="16" width="14.875" customWidth="1"/>
     <col min="17" max="17" width="17.5" customWidth="1"/>
-    <col min="18" max="18" width="36" customWidth="1"/>
+    <col min="18" max="18" width="36" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -14363,7 +14337,7 @@
       <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14413,7 +14387,7 @@
       <c r="Q4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -14463,7 +14437,7 @@
       <c r="Q5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -14513,7 +14487,7 @@
       <c r="Q6" s="13">
         <v>1</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14563,7 +14537,7 @@
       <c r="Q7" s="13">
         <v>30</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14613,7 +14587,7 @@
       <c r="Q8" s="14">
         <v>3</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -14663,7 +14637,7 @@
       <c r="Q9" s="14">
         <v>1</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="R9" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14713,7 +14687,7 @@
       <c r="Q10" s="13">
         <v>100000</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -14763,7 +14737,7 @@
       <c r="Q11" s="13">
         <v>3</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="R11" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14813,7 +14787,7 @@
       <c r="Q12" s="14">
         <v>1</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -14863,7 +14837,7 @@
       <c r="Q13" s="14">
         <v>1</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="R13" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -14913,7 +14887,7 @@
       <c r="Q14" s="13">
         <v>1</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="R14" s="18" t="s">
         <v>98</v>
       </c>
     </row>
@@ -14963,7 +14937,7 @@
       <c r="Q15" s="13">
         <v>1</v>
       </c>
-      <c r="R15" s="16" t="s">
+      <c r="R15" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -15013,7 +14987,7 @@
       <c r="Q16" s="13">
         <v>1</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="R16" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15063,7 +15037,7 @@
       <c r="Q17" s="14">
         <v>15</v>
       </c>
-      <c r="R17" s="16" t="s">
+      <c r="R17" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15113,7 +15087,7 @@
       <c r="Q18" s="14">
         <v>20</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="R18" s="18" t="s">
         <v>99</v>
       </c>
     </row>
@@ -15163,7 +15137,7 @@
       <c r="Q19" s="13">
         <v>5</v>
       </c>
-      <c r="R19" s="16" t="s">
+      <c r="R19" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -15213,7 +15187,7 @@
       <c r="Q20" s="13">
         <v>1</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="R20" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -15263,7 +15237,7 @@
       <c r="Q21" s="13">
         <v>1</v>
       </c>
-      <c r="R21" s="16" t="s">
+      <c r="R21" s="18" t="s">
         <v>97</v>
       </c>
     </row>
@@ -15313,7 +15287,7 @@
       <c r="Q22" s="13">
         <v>1</v>
       </c>
-      <c r="R22" s="16" t="s">
+      <c r="R22" s="18" t="s">
         <v>68</v>
       </c>
     </row>
@@ -15363,7 +15337,7 @@
       <c r="Q23" s="13">
         <v>1</v>
       </c>
-      <c r="R23" s="16" t="s">
+      <c r="R23" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15413,7 +15387,7 @@
       <c r="Q24" s="13">
         <v>1</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="R24" s="18" t="s">
         <v>73</v>
       </c>
     </row>
@@ -15463,7 +15437,7 @@
       <c r="Q25" s="13">
         <v>1</v>
       </c>
-      <c r="R25" s="16" t="s">
+      <c r="R25" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -15513,7 +15487,7 @@
       <c r="Q26" s="13">
         <v>3</v>
       </c>
-      <c r="R26" s="16" t="s">
+      <c r="R26" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -15563,7 +15537,7 @@
       <c r="Q27" s="13">
         <v>5</v>
       </c>
-      <c r="R27" s="16" t="s">
+      <c r="R27" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -15613,7 +15587,7 @@
       <c r="Q28" s="13">
         <v>10</v>
       </c>
-      <c r="R28" s="16" t="s">
+      <c r="R28" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -15663,7 +15637,7 @@
       <c r="Q29" s="13">
         <v>15</v>
       </c>
-      <c r="R29" s="16" t="s">
+      <c r="R29" s="18" t="s">
         <v>84</v>
       </c>
     </row>
@@ -15713,7 +15687,7 @@
       <c r="Q30" s="13">
         <v>20</v>
       </c>
-      <c r="R30" s="16" t="s">
+      <c r="R30" s="18" t="s">
         <v>86</v>
       </c>
     </row>
@@ -15763,7 +15737,7 @@
       <c r="Q31" s="13">
         <v>30</v>
       </c>
-      <c r="R31" s="16" t="s">
+      <c r="R31" s="18" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15813,7 +15787,7 @@
       <c r="Q32" s="13">
         <v>3</v>
       </c>
-      <c r="R32" s="16" t="s">
+      <c r="R32" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15863,7 +15837,7 @@
       <c r="Q33" s="13">
         <v>10</v>
       </c>
-      <c r="R33" s="16" t="s">
+      <c r="R33" s="18" t="s">
         <v>93</v>
       </c>
     </row>
@@ -15913,7 +15887,7 @@
       <c r="Q34" s="14">
         <v>5</v>
       </c>
-      <c r="R34" s="16" t="s">
+      <c r="R34" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -15963,7 +15937,7 @@
       <c r="Q35" s="13">
         <v>10</v>
       </c>
-      <c r="R35" s="16" t="s">
+      <c r="R35" s="18" t="s">
         <v>105</v>
       </c>
     </row>
@@ -16013,7 +15987,7 @@
       <c r="Q36" s="13">
         <v>30</v>
       </c>
-      <c r="R36" s="16" t="s">
+      <c r="R36" s="18" t="s">
         <v>106</v>
       </c>
     </row>
@@ -16063,7 +16037,7 @@
       <c r="Q37" s="13">
         <v>10</v>
       </c>
-      <c r="R37" s="16" t="s">
+      <c r="R37" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -16113,14 +16087,109 @@
       <c r="Q38" s="13">
         <v>30</v>
       </c>
-      <c r="R38" s="16" t="s">
+      <c r="R38" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="J40" s="3"/>
-      <c r="M40" s="3"/>
+    <row r="39" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="7">
+        <v>400001</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="7">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7">
+        <v>100014</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O39" s="13">
+        <v>301</v>
+      </c>
+      <c r="P39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>10</v>
+      </c>
+      <c r="R39" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="7">
+        <v>400002</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="7">
+        <v>3</v>
+      </c>
+      <c r="F40" s="7">
+        <v>100014</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O40" s="13">
+        <v>301</v>
+      </c>
+      <c r="P40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>30</v>
+      </c>
+      <c r="R40" s="18" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.15">
       <c r="J41" s="3"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C9A69D-0BCC-4F42-A245-ED91E10CD1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7B4E5-53C6-429F-8895-53A5D099AE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14272,8 +14272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16099,7 +16099,7 @@
         <v>109</v>
       </c>
       <c r="E39" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="7">
         <v>100014</v>
@@ -16149,7 +16149,7 @@
         <v>110</v>
       </c>
       <c r="E40" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="7">
         <v>100014</v>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7B4E5-53C6-429F-8895-53A5D099AE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE463E9B-CEBD-4113-A3AF-F0C00EC0D37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,36 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Admin</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{34D74090-F4A8-4FB8-9A8B-548599065887}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+          </rPr>
+          <t xml:space="preserve">
+        public const int Country = 1;    //活跃任务
+        public const int Battle = 2;     //战场任务
+        public const int ShowLie = 3;    //狩猎任务
+        public const int UnionRace = 4;  //家族战</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -509,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +682,17 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="51">
@@ -14272,8 +14309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE463E9B-CEBD-4113-A3AF-F0C00EC0D37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC67EA6-55B4-4374-8ACC-96AFF14189A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>Admin:</t>
         </r>
@@ -42,6 +44,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
         public const int Country = 1;    //活跃任务
@@ -181,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
   <si>
     <t>Id</t>
   </si>
@@ -530,6 +534,54 @@
     <t>击败敌方10人</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>击败敌方20人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败敌方30人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败敌方50人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010085;100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家族争霸赛中击败敌方5人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家族争霸赛中击败敌方10人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家族争霸赛中击败敌方20人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家族争霸赛中击败敌方30人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家族争霸赛中击败敌方50人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010086;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010046;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000157;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -687,12 +739,16 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="51">
@@ -14309,8 +14365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="J31" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16160,10 +16216,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O39" s="13">
         <v>301</v>
@@ -16175,7 +16231,7 @@
         <v>10</v>
       </c>
       <c r="R39" s="18" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -16225,20 +16281,158 @@
         <v>30</v>
       </c>
       <c r="R40" s="18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="J41" s="3"/>
-      <c r="M41" s="3"/>
+    <row r="41" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="7">
+        <v>400003</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="7">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7">
+        <v>100015</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="13">
+        <v>301</v>
+      </c>
+      <c r="P41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>30</v>
+      </c>
+      <c r="R41" s="18" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="J42" s="3"/>
-      <c r="M42" s="3"/>
+    <row r="42" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="7">
+        <v>400004</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="7">
+        <v>4</v>
+      </c>
+      <c r="F42" s="7">
+        <v>100016</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O42" s="13">
+        <v>301</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>30</v>
+      </c>
+      <c r="R42" s="18" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="J43" s="3"/>
-      <c r="M43" s="3"/>
+    <row r="43" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="7">
+        <v>400005</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="7">
+        <v>4</v>
+      </c>
+      <c r="F43" s="7">
+        <v>100016</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O43" s="13">
+        <v>301</v>
+      </c>
+      <c r="P43" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>30</v>
+      </c>
+      <c r="R43" s="18" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.15">
       <c r="M44" s="3"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEB4DBF-B736-492B-858A-F257B8B9B1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948D03A-B937-4029-9EF4-546BC71C1782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,8 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>Admin:</t>
         </r>
@@ -40,6 +42,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
         public const int Country = 1;    //活跃任务
@@ -57,6 +61,8 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -64,6 +70,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -72,6 +80,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>本条任务触发概率</t>
         </r>
@@ -84,6 +94,8 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
 </t>
@@ -92,6 +104,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">0：忽略此字段
 </t>
@@ -100,6 +114,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>1：角色等级某级触发</t>
         </r>
@@ -112,6 +128,8 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>作者:</t>
         </r>
@@ -119,6 +137,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 1：登陆
@@ -145,24 +165,9 @@
 104:  战场死亡次数
 201： 狩猎怪物数量
 301： 家族战击杀玩家数量
-401：  占领X个矿
-40</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-          </rPr>
-          <t>:   挑战其他框X次</t>
+401：  是否占领过某个类型得矿(只支持1次占领)
+402:   挑战宠物矿X次
+403：  挑战某种类型得矿成功的次数</t>
         </r>
       </text>
     </comment>
@@ -182,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="132">
   <si>
     <t>Id</t>
   </si>
@@ -576,12 +581,24 @@
     <t>挑战其他矿三次</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>1;50000@10000132;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;20000@10000132;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100000@10000132;10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,35 +610,47 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,6 +663,8 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -641,24 +672,32 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,6 +705,8 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,26 +714,36 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -702,12 +753,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="51">
@@ -14331,8 +14376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14345,7 +14390,8 @@
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="13.125" customWidth="1"/>
     <col min="12" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="16" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="20.875" customWidth="1"/>
+    <col min="15" max="16" width="14.875" customWidth="1"/>
     <col min="17" max="17" width="17.5" customWidth="1"/>
     <col min="18" max="18" width="36" style="4" customWidth="1"/>
   </cols>
@@ -15900,7 +15946,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="3:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:19" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="8">
         <v>200011</v>
       </c>
@@ -16432,10 +16478,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O44" s="14">
         <v>401</v>
@@ -16482,10 +16528,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O45" s="14">
         <v>401</v>
@@ -16532,10 +16578,10 @@
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O46" s="14">
         <v>401</v>
@@ -16582,10 +16628,10 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O47" s="14">
         <v>401</v>
@@ -16632,10 +16678,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O48" s="14">
         <v>402</v>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F948D03A-B937-4029-9EF4-546BC71C1782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A01F3-7941-4E90-AA4B-4B16E47FB167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,8 @@
         public const int Battle = 2;     //战场任务
         public const int ShowLie = 3;    //狩猎任务
         public const int UnionRace = 4;  //家族战
-        public const int Mine = 5;       //宠物矿场</t>
+        public const int Mine = 5;       //宠物矿场
+        public const int Season = 6;     //赛季任务</t>
         </r>
       </text>
     </comment>
@@ -14376,8 +14377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A01F3-7941-4E90-AA4B-4B16E47FB167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7875AAA1-0D22-4FEB-82E9-452AAE3C00CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="134">
   <si>
     <t>Id</t>
   </si>
@@ -592,6 +592,14 @@
   </si>
   <si>
     <t>1;100000@10000132;10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【赛季】击败敌方5人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在赛季期间击败敌方5人</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14375,10 +14383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:S48"/>
+  <dimension ref="C3:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16698,6 +16706,56 @@
       </c>
       <c r="S48" s="22"/>
     </row>
+    <row r="49" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="8">
+        <v>600001</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="8">
+        <v>6</v>
+      </c>
+      <c r="F49" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <v>1</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O49" s="14">
+        <v>301</v>
+      </c>
+      <c r="P49" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>5</v>
+      </c>
+      <c r="R49" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7875AAA1-0D22-4FEB-82E9-452AAE3C00CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9996C17-1160-4B2D-B5A6-A876094F85F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -571,15 +571,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>占领一个核心矿</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>挑战其他矿次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战其他矿三次</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -600,6 +592,26 @@
   </si>
   <si>
     <t>在赛季期间击败敌方5人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>占领一个黄金矿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>占领一个白银矿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>占领一个青铜矿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>占领任意一个级别的核心矿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在挖矿玩法中挑战其他玩家3次</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -10726,7 +10738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10785,9 +10797,6 @@
     </xf>
     <xf numFmtId="49" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -14385,8 +14394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16490,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O44" s="14">
         <v>401</v>
@@ -16501,8 +16510,8 @@
       <c r="Q44" s="14">
         <v>1</v>
       </c>
-      <c r="R44" s="21" t="s">
-        <v>123</v>
+      <c r="R44" s="19" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="3:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -16540,7 +16549,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O45" s="14">
         <v>401</v>
@@ -16551,8 +16560,8 @@
       <c r="Q45" s="14">
         <v>1</v>
       </c>
-      <c r="R45" s="21" t="s">
-        <v>124</v>
+      <c r="R45" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="3:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -16590,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O46" s="14">
         <v>401</v>
@@ -16601,8 +16610,8 @@
       <c r="Q46" s="14">
         <v>1</v>
       </c>
-      <c r="R46" s="21" t="s">
-        <v>125</v>
+      <c r="R46" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="3:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -16640,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O47" s="14">
         <v>401</v>
@@ -16651,8 +16660,8 @@
       <c r="Q47" s="14">
         <v>1</v>
       </c>
-      <c r="R47" s="21" t="s">
-        <v>126</v>
+      <c r="R47" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="3:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -16660,7 +16669,7 @@
         <v>500005</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E48" s="8">
         <v>5</v>
@@ -16690,7 +16699,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O48" s="14">
         <v>402</v>
@@ -16701,17 +16710,17 @@
       <c r="Q48" s="14">
         <v>3</v>
       </c>
-      <c r="R48" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="S48" s="22"/>
+      <c r="R48" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="S48" s="21"/>
     </row>
     <row r="49" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="8">
         <v>600001</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E49" s="8">
         <v>6</v>
@@ -16753,7 +16762,7 @@
         <v>5</v>
       </c>
       <c r="R49" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9996C17-1160-4B2D-B5A6-A876094F85F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F6AE3-D71E-45E8-A9BE-CE226F07AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -14394,8 +14394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16052,7 +16052,7 @@
         <v>101</v>
       </c>
       <c r="O35" s="14">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P35" s="14">
         <v>0</v>
@@ -16152,7 +16152,7 @@
         <v>101</v>
       </c>
       <c r="O37" s="14">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P37" s="14">
         <v>0</v>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F6AE3-D71E-45E8-A9BE-CE226F07AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E442B4-8753-435A-9606-1CDFD437247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,74 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t xml:space="preserve">作者:
+1：杀怪
+2：道具ID
+3：找人
+4：等级达到指定等级
+5：击杀任意怪物
+6：击杀任意BOSS级别怪物
+7：通关某个副本
+8：转职任务
+9: 加入家族
+10：给与任务（道具）
+11:获得宠物
+12:制造N个道具
+13:洗炼装备次数
+14:宠物在天梯战斗N次
+15:钻石兑换金币次数
+16:装备重铸次数达到N次 （就是装备分解）
+17:强化装备最高一级达到N级
+18:拥有一个N技能宠物
+19:宠物探险通关第N关卡
+20:消耗X金币
+21:在野外击败敌人X次
+22:家园等级达到X级
+23:进行一次宠物合成
+24:获得任意宠物N个(不算之前)
+25: 给予任务(宠物)
+26.使用普通藏宝图x次
+27.使用高级藏宝图X次
+28.封印之塔挑战X次
+29:制造超过某个N品质的道具，制造X个道具（俩参数:品质，数量）
+30.使用药剂或者合剂X次
+31.获得X只新的宠物(接取任务才开始算获取)
+32.合成1只战力达到X点的宠物
+33.宠物使用宠之晶洗炼宠物达到X次
+34.在孵化系统中孵化成功宠物X次
+35.在孵化系统中孵化指定的宠物蛋成功X次（俩参数:宠物蛋ID，次数）
+36.宠物使用技能书X次
+41.使用N点品质的鉴定附魔道具给装备附魔X次（俩参数:附魔道具品质，次数）
+42.使用N点品质的鉴定道具给装备鉴定X次（俩参数:鉴定道具品质，次数）
+43.鉴定装备时出一个大于N条属性的装备X个（俩参数:鉴定属性条目数量，数量）
+44.洗炼出带有任何隐藏技能的装备X个
+45.洗炼出带有指定属性的装备X个（俩参数:指定属性ID，数量）
+46.增幅装备X次
+81:试炼之地的输出排行榜进入前N名次，X次（俩参数:前N名，次数）
+82:宠物天梯进入排行榜前N名次，X次（俩参数:前N名，次数）
+83:战力排行榜进入前N名次，X次（俩参数:前N名，次数）
+91: 家园烹饪次数
+92: 家园种地种植次数
+93: 家园种地收获次数
+94: 家园牧场饲养次数
+95: 家园牧场收货次数
+96: 家园美味品尝次数
+101：击杀挑战难度的指定ID怪物(击杀地狱也算)
+102：击杀地狱你拿度指定ID怪物
+111：通关挑战难度的副本(通关地狱也算)
+112：通关地狱难度的副本
+121：击败挑战难度任意数量怪物(通关地狱也算)
+122：击败地狱难度任意数量怪物
+131：击败挑战难度任意boss怪物(通关地狱也算)
+132：击败地狱难度任意boss怪物
+133: 战力达到多少
+134: 试炼之地达到多少层
+135: 挑战深渊模式的副本X次
+136: 在N级组队副本中,自身输出超过X% (俩参数:副本等级,伤害百分比,比如40%就配置40)
+401：  是否占领过某个类型得矿(只支持1次占领)
+402:   挑战宠物矿X次
+403：  挑战某种类型得矿成功的次数
+</t>
         </r>
         <r>
           <rPr>
@@ -142,33 +209,31 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1：登陆
-2：打任意怪
-3：打领主级怪
-4：进入组队副本
-5：消费指定数量金币
-6：制造任意的道具或道具
-7：宠物界面洗炼
-8：获得宠物
-9：装备重铸
-10：在线时间
-11：回收装备行为
-12：进入试炼之地
-13：进入挑战之地
-14：赏金任务完成次数
-15：拍卖行上架道具
-16：幸运探宝（抽奖）次数
-17：使用鉴定符鉴定一件装备
-18：烹饪制造
-101： 战场胜利
-102： 战场击杀玩家数量
-103:  在战场中存在多少分钟
-104:  战场死亡次数
-201： 狩猎怪物数量
-301： 家族战击杀玩家数量
-401：  是否占领过某个类型得矿(只支持1次占领)
-402:   挑战宠物矿X次
-403：  挑战某种类型得矿成功的次数</t>
+1001：登陆
+1002：打任意怪
+1003：打领主级怪
+1004：进入组队副本
+1005：消费指定数量金币
+1006：制造任意的道具或道具
+1007：宠物界面洗炼
+1008：获得宠物
+1009：装备重铸
+1010：在线时间
+1011：回收装备行为
+1012：进入试炼之地
+1013：进入挑战之地
+1014：赏金任务完成次数
+1015：拍卖行上架道具
+1016：幸运探宝（抽奖）次数
+1017：使用鉴定符鉴定一件装备
+1018：烹饪制造
+1101： 战场胜利
+1102： 战场击杀玩家数量
+1103:  在战场中存在多少分钟
+1104:  战场死亡次数
+1201： 狩猎怪物数量
+1301： 家族战击杀玩家数量
+</t>
         </r>
       </text>
     </comment>
@@ -14394,8 +14459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14602,7 +14667,7 @@
         <v>35</v>
       </c>
       <c r="O6" s="14">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="P6" s="14">
         <v>0</v>
@@ -14652,7 +14717,7 @@
         <v>35</v>
       </c>
       <c r="O7" s="14">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="P7" s="14">
         <v>0</v>
@@ -14702,7 +14767,7 @@
         <v>35</v>
       </c>
       <c r="O8" s="15">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="P8" s="15">
         <v>0</v>
@@ -14752,7 +14817,7 @@
         <v>35</v>
       </c>
       <c r="O9" s="15">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="P9" s="15">
         <v>0</v>
@@ -14802,7 +14867,7 @@
         <v>35</v>
       </c>
       <c r="O10" s="14">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="P10" s="14">
         <v>0</v>
@@ -14852,7 +14917,7 @@
         <v>35</v>
       </c>
       <c r="O11" s="14">
-        <v>14</v>
+        <v>1014</v>
       </c>
       <c r="P11" s="14">
         <v>0</v>
@@ -14902,7 +14967,7 @@
         <v>35</v>
       </c>
       <c r="O12" s="15">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="P12" s="16">
         <v>0</v>
@@ -14952,7 +15017,7 @@
         <v>35</v>
       </c>
       <c r="O13" s="15">
-        <v>17</v>
+        <v>1017</v>
       </c>
       <c r="P13" s="16">
         <v>0</v>
@@ -15002,7 +15067,7 @@
         <v>35</v>
       </c>
       <c r="O14" s="14">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="P14" s="14">
         <v>0</v>
@@ -15052,7 +15117,7 @@
         <v>35</v>
       </c>
       <c r="O15" s="14">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="P15" s="14">
         <v>0</v>
@@ -15102,7 +15167,7 @@
         <v>35</v>
       </c>
       <c r="O16" s="14">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="P16" s="14">
         <v>0</v>
@@ -15152,7 +15217,7 @@
         <v>35</v>
       </c>
       <c r="O17" s="15">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="P17" s="15">
         <v>0</v>
@@ -15202,7 +15267,7 @@
         <v>35</v>
       </c>
       <c r="O18" s="15">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="P18" s="15">
         <v>0</v>
@@ -15252,7 +15317,7 @@
         <v>35</v>
       </c>
       <c r="O19" s="14">
-        <v>11</v>
+        <v>1011</v>
       </c>
       <c r="P19" s="14">
         <v>0</v>
@@ -15302,7 +15367,7 @@
         <v>35</v>
       </c>
       <c r="O20" s="14">
-        <v>15</v>
+        <v>1015</v>
       </c>
       <c r="P20" s="14">
         <v>0</v>
@@ -15352,7 +15417,7 @@
         <v>35</v>
       </c>
       <c r="O21" s="14">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="P21" s="14">
         <v>0</v>
@@ -15402,7 +15467,7 @@
         <v>35</v>
       </c>
       <c r="O22" s="14">
-        <v>12</v>
+        <v>1012</v>
       </c>
       <c r="P22" s="14">
         <v>0</v>
@@ -15452,7 +15517,7 @@
         <v>35</v>
       </c>
       <c r="O23" s="14">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="P23" s="14">
         <v>0</v>
@@ -15502,7 +15567,7 @@
         <v>76</v>
       </c>
       <c r="O24" s="14">
-        <v>101</v>
+        <v>1101</v>
       </c>
       <c r="P24" s="14">
         <v>0</v>
@@ -15552,7 +15617,7 @@
         <v>79</v>
       </c>
       <c r="O25" s="14">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="P25" s="14">
         <v>0</v>
@@ -15602,7 +15667,7 @@
         <v>79</v>
       </c>
       <c r="O26" s="14">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="P26" s="14">
         <v>0</v>
@@ -15652,7 +15717,7 @@
         <v>76</v>
       </c>
       <c r="O27" s="14">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="P27" s="14">
         <v>0</v>
@@ -15702,7 +15767,7 @@
         <v>76</v>
       </c>
       <c r="O28" s="14">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="P28" s="14">
         <v>0</v>
@@ -15752,7 +15817,7 @@
         <v>76</v>
       </c>
       <c r="O29" s="14">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="P29" s="14">
         <v>0</v>
@@ -15802,7 +15867,7 @@
         <v>76</v>
       </c>
       <c r="O30" s="14">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="P30" s="14">
         <v>0</v>
@@ -15852,7 +15917,7 @@
         <v>92</v>
       </c>
       <c r="O31" s="14">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="P31" s="14">
         <v>0</v>
@@ -15902,7 +15967,7 @@
         <v>79</v>
       </c>
       <c r="O32" s="14">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="P32" s="14">
         <v>0</v>
@@ -15952,7 +16017,7 @@
         <v>76</v>
       </c>
       <c r="O33" s="14">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="P33" s="14">
         <v>0</v>
@@ -16002,7 +16067,7 @@
         <v>79</v>
       </c>
       <c r="O34" s="15">
-        <v>103</v>
+        <v>1103</v>
       </c>
       <c r="P34" s="15">
         <v>0</v>
@@ -16052,7 +16117,7 @@
         <v>101</v>
       </c>
       <c r="O35" s="14">
-        <v>201</v>
+        <v>1201</v>
       </c>
       <c r="P35" s="14">
         <v>0</v>
@@ -16102,7 +16167,7 @@
         <v>101</v>
       </c>
       <c r="O36" s="14">
-        <v>201</v>
+        <v>1201</v>
       </c>
       <c r="P36" s="14">
         <v>0</v>
@@ -16152,7 +16217,7 @@
         <v>101</v>
       </c>
       <c r="O37" s="14">
-        <v>201</v>
+        <v>1201</v>
       </c>
       <c r="P37" s="14">
         <v>0</v>
@@ -16202,7 +16267,7 @@
         <v>101</v>
       </c>
       <c r="O38" s="14">
-        <v>201</v>
+        <v>1201</v>
       </c>
       <c r="P38" s="14">
         <v>0</v>
@@ -16252,7 +16317,7 @@
         <v>110</v>
       </c>
       <c r="O39" s="14">
-        <v>301</v>
+        <v>1301</v>
       </c>
       <c r="P39" s="14">
         <v>0</v>
@@ -16302,7 +16367,7 @@
         <v>101</v>
       </c>
       <c r="O40" s="14">
-        <v>301</v>
+        <v>1301</v>
       </c>
       <c r="P40" s="14">
         <v>0</v>
@@ -16352,7 +16417,7 @@
         <v>115</v>
       </c>
       <c r="O41" s="14">
-        <v>301</v>
+        <v>1301</v>
       </c>
       <c r="P41" s="14">
         <v>0</v>
@@ -16402,7 +16467,7 @@
         <v>118</v>
       </c>
       <c r="O42" s="14">
-        <v>301</v>
+        <v>1301</v>
       </c>
       <c r="P42" s="14">
         <v>0</v>
@@ -16452,7 +16517,7 @@
         <v>121</v>
       </c>
       <c r="O43" s="14">
-        <v>301</v>
+        <v>1301</v>
       </c>
       <c r="P43" s="14">
         <v>0</v>
@@ -16753,7 +16818,7 @@
         <v>110</v>
       </c>
       <c r="O49" s="14">
-        <v>301</v>
+        <v>1301</v>
       </c>
       <c r="P49" s="14">
         <v>0</v>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E442B4-8753-435A-9606-1CDFD437247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F6AE3-D71E-45E8-A9BE-CE226F07AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,74 +132,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
-1：杀怪
-2：道具ID
-3：找人
-4：等级达到指定等级
-5：击杀任意怪物
-6：击杀任意BOSS级别怪物
-7：通关某个副本
-8：转职任务
-9: 加入家族
-10：给与任务（道具）
-11:获得宠物
-12:制造N个道具
-13:洗炼装备次数
-14:宠物在天梯战斗N次
-15:钻石兑换金币次数
-16:装备重铸次数达到N次 （就是装备分解）
-17:强化装备最高一级达到N级
-18:拥有一个N技能宠物
-19:宠物探险通关第N关卡
-20:消耗X金币
-21:在野外击败敌人X次
-22:家园等级达到X级
-23:进行一次宠物合成
-24:获得任意宠物N个(不算之前)
-25: 给予任务(宠物)
-26.使用普通藏宝图x次
-27.使用高级藏宝图X次
-28.封印之塔挑战X次
-29:制造超过某个N品质的道具，制造X个道具（俩参数:品质，数量）
-30.使用药剂或者合剂X次
-31.获得X只新的宠物(接取任务才开始算获取)
-32.合成1只战力达到X点的宠物
-33.宠物使用宠之晶洗炼宠物达到X次
-34.在孵化系统中孵化成功宠物X次
-35.在孵化系统中孵化指定的宠物蛋成功X次（俩参数:宠物蛋ID，次数）
-36.宠物使用技能书X次
-41.使用N点品质的鉴定附魔道具给装备附魔X次（俩参数:附魔道具品质，次数）
-42.使用N点品质的鉴定道具给装备鉴定X次（俩参数:鉴定道具品质，次数）
-43.鉴定装备时出一个大于N条属性的装备X个（俩参数:鉴定属性条目数量，数量）
-44.洗炼出带有任何隐藏技能的装备X个
-45.洗炼出带有指定属性的装备X个（俩参数:指定属性ID，数量）
-46.增幅装备X次
-81:试炼之地的输出排行榜进入前N名次，X次（俩参数:前N名，次数）
-82:宠物天梯进入排行榜前N名次，X次（俩参数:前N名，次数）
-83:战力排行榜进入前N名次，X次（俩参数:前N名，次数）
-91: 家园烹饪次数
-92: 家园种地种植次数
-93: 家园种地收获次数
-94: 家园牧场饲养次数
-95: 家园牧场收货次数
-96: 家园美味品尝次数
-101：击杀挑战难度的指定ID怪物(击杀地狱也算)
-102：击杀地狱你拿度指定ID怪物
-111：通关挑战难度的副本(通关地狱也算)
-112：通关地狱难度的副本
-121：击败挑战难度任意数量怪物(通关地狱也算)
-122：击败地狱难度任意数量怪物
-131：击败挑战难度任意boss怪物(通关地狱也算)
-132：击败地狱难度任意boss怪物
-133: 战力达到多少
-134: 试炼之地达到多少层
-135: 挑战深渊模式的副本X次
-136: 在N级组队副本中,自身输出超过X% (俩参数:副本等级,伤害百分比,比如40%就配置40)
-401：  是否占领过某个类型得矿(只支持1次占领)
-402:   挑战宠物矿X次
-403：  挑战某种类型得矿成功的次数
-</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -209,31 +142,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1001：登陆
-1002：打任意怪
-1003：打领主级怪
-1004：进入组队副本
-1005：消费指定数量金币
-1006：制造任意的道具或道具
-1007：宠物界面洗炼
-1008：获得宠物
-1009：装备重铸
-1010：在线时间
-1011：回收装备行为
-1012：进入试炼之地
-1013：进入挑战之地
-1014：赏金任务完成次数
-1015：拍卖行上架道具
-1016：幸运探宝（抽奖）次数
-1017：使用鉴定符鉴定一件装备
-1018：烹饪制造
-1101： 战场胜利
-1102： 战场击杀玩家数量
-1103:  在战场中存在多少分钟
-1104:  战场死亡次数
-1201： 狩猎怪物数量
-1301： 家族战击杀玩家数量
-</t>
+1：登陆
+2：打任意怪
+3：打领主级怪
+4：进入组队副本
+5：消费指定数量金币
+6：制造任意的道具或道具
+7：宠物界面洗炼
+8：获得宠物
+9：装备重铸
+10：在线时间
+11：回收装备行为
+12：进入试炼之地
+13：进入挑战之地
+14：赏金任务完成次数
+15：拍卖行上架道具
+16：幸运探宝（抽奖）次数
+17：使用鉴定符鉴定一件装备
+18：烹饪制造
+101： 战场胜利
+102： 战场击杀玩家数量
+103:  在战场中存在多少分钟
+104:  战场死亡次数
+201： 狩猎怪物数量
+301： 家族战击杀玩家数量
+401：  是否占领过某个类型得矿(只支持1次占领)
+402:   挑战宠物矿X次
+403：  挑战某种类型得矿成功的次数</t>
         </r>
       </text>
     </comment>
@@ -14459,8 +14394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14667,7 +14602,7 @@
         <v>35</v>
       </c>
       <c r="O6" s="14">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="P6" s="14">
         <v>0</v>
@@ -14717,7 +14652,7 @@
         <v>35</v>
       </c>
       <c r="O7" s="14">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="P7" s="14">
         <v>0</v>
@@ -14767,7 +14702,7 @@
         <v>35</v>
       </c>
       <c r="O8" s="15">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="P8" s="15">
         <v>0</v>
@@ -14817,7 +14752,7 @@
         <v>35</v>
       </c>
       <c r="O9" s="15">
-        <v>1004</v>
+        <v>4</v>
       </c>
       <c r="P9" s="15">
         <v>0</v>
@@ -14867,7 +14802,7 @@
         <v>35</v>
       </c>
       <c r="O10" s="14">
-        <v>1005</v>
+        <v>5</v>
       </c>
       <c r="P10" s="14">
         <v>0</v>
@@ -14917,7 +14852,7 @@
         <v>35</v>
       </c>
       <c r="O11" s="14">
-        <v>1014</v>
+        <v>14</v>
       </c>
       <c r="P11" s="14">
         <v>0</v>
@@ -14967,7 +14902,7 @@
         <v>35</v>
       </c>
       <c r="O12" s="15">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="P12" s="16">
         <v>0</v>
@@ -15017,7 +14952,7 @@
         <v>35</v>
       </c>
       <c r="O13" s="15">
-        <v>1017</v>
+        <v>17</v>
       </c>
       <c r="P13" s="16">
         <v>0</v>
@@ -15067,7 +15002,7 @@
         <v>35</v>
       </c>
       <c r="O14" s="14">
-        <v>1007</v>
+        <v>7</v>
       </c>
       <c r="P14" s="14">
         <v>0</v>
@@ -15117,7 +15052,7 @@
         <v>35</v>
       </c>
       <c r="O15" s="14">
-        <v>1008</v>
+        <v>8</v>
       </c>
       <c r="P15" s="14">
         <v>0</v>
@@ -15167,7 +15102,7 @@
         <v>35</v>
       </c>
       <c r="O16" s="14">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="P16" s="14">
         <v>0</v>
@@ -15217,7 +15152,7 @@
         <v>35</v>
       </c>
       <c r="O17" s="15">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="P17" s="15">
         <v>0</v>
@@ -15267,7 +15202,7 @@
         <v>35</v>
       </c>
       <c r="O18" s="15">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="P18" s="15">
         <v>0</v>
@@ -15317,7 +15252,7 @@
         <v>35</v>
       </c>
       <c r="O19" s="14">
-        <v>1011</v>
+        <v>11</v>
       </c>
       <c r="P19" s="14">
         <v>0</v>
@@ -15367,7 +15302,7 @@
         <v>35</v>
       </c>
       <c r="O20" s="14">
-        <v>1015</v>
+        <v>15</v>
       </c>
       <c r="P20" s="14">
         <v>0</v>
@@ -15417,7 +15352,7 @@
         <v>35</v>
       </c>
       <c r="O21" s="14">
-        <v>1018</v>
+        <v>18</v>
       </c>
       <c r="P21" s="14">
         <v>0</v>
@@ -15467,7 +15402,7 @@
         <v>35</v>
       </c>
       <c r="O22" s="14">
-        <v>1012</v>
+        <v>12</v>
       </c>
       <c r="P22" s="14">
         <v>0</v>
@@ -15517,7 +15452,7 @@
         <v>35</v>
       </c>
       <c r="O23" s="14">
-        <v>1013</v>
+        <v>13</v>
       </c>
       <c r="P23" s="14">
         <v>0</v>
@@ -15567,7 +15502,7 @@
         <v>76</v>
       </c>
       <c r="O24" s="14">
-        <v>1101</v>
+        <v>101</v>
       </c>
       <c r="P24" s="14">
         <v>0</v>
@@ -15617,7 +15552,7 @@
         <v>79</v>
       </c>
       <c r="O25" s="14">
-        <v>1102</v>
+        <v>102</v>
       </c>
       <c r="P25" s="14">
         <v>0</v>
@@ -15667,7 +15602,7 @@
         <v>79</v>
       </c>
       <c r="O26" s="14">
-        <v>1102</v>
+        <v>102</v>
       </c>
       <c r="P26" s="14">
         <v>0</v>
@@ -15717,7 +15652,7 @@
         <v>76</v>
       </c>
       <c r="O27" s="14">
-        <v>1102</v>
+        <v>102</v>
       </c>
       <c r="P27" s="14">
         <v>0</v>
@@ -15767,7 +15702,7 @@
         <v>76</v>
       </c>
       <c r="O28" s="14">
-        <v>1102</v>
+        <v>102</v>
       </c>
       <c r="P28" s="14">
         <v>0</v>
@@ -15817,7 +15752,7 @@
         <v>76</v>
       </c>
       <c r="O29" s="14">
-        <v>1102</v>
+        <v>102</v>
       </c>
       <c r="P29" s="14">
         <v>0</v>
@@ -15867,7 +15802,7 @@
         <v>76</v>
       </c>
       <c r="O30" s="14">
-        <v>1102</v>
+        <v>102</v>
       </c>
       <c r="P30" s="14">
         <v>0</v>
@@ -15917,7 +15852,7 @@
         <v>92</v>
       </c>
       <c r="O31" s="14">
-        <v>1102</v>
+        <v>102</v>
       </c>
       <c r="P31" s="14">
         <v>0</v>
@@ -15967,7 +15902,7 @@
         <v>79</v>
       </c>
       <c r="O32" s="14">
-        <v>1102</v>
+        <v>102</v>
       </c>
       <c r="P32" s="14">
         <v>0</v>
@@ -16017,7 +15952,7 @@
         <v>76</v>
       </c>
       <c r="O33" s="14">
-        <v>1102</v>
+        <v>102</v>
       </c>
       <c r="P33" s="14">
         <v>0</v>
@@ -16067,7 +16002,7 @@
         <v>79</v>
       </c>
       <c r="O34" s="15">
-        <v>1103</v>
+        <v>103</v>
       </c>
       <c r="P34" s="15">
         <v>0</v>
@@ -16117,7 +16052,7 @@
         <v>101</v>
       </c>
       <c r="O35" s="14">
-        <v>1201</v>
+        <v>201</v>
       </c>
       <c r="P35" s="14">
         <v>0</v>
@@ -16167,7 +16102,7 @@
         <v>101</v>
       </c>
       <c r="O36" s="14">
-        <v>1201</v>
+        <v>201</v>
       </c>
       <c r="P36" s="14">
         <v>0</v>
@@ -16217,7 +16152,7 @@
         <v>101</v>
       </c>
       <c r="O37" s="14">
-        <v>1201</v>
+        <v>201</v>
       </c>
       <c r="P37" s="14">
         <v>0</v>
@@ -16267,7 +16202,7 @@
         <v>101</v>
       </c>
       <c r="O38" s="14">
-        <v>1201</v>
+        <v>201</v>
       </c>
       <c r="P38" s="14">
         <v>0</v>
@@ -16317,7 +16252,7 @@
         <v>110</v>
       </c>
       <c r="O39" s="14">
-        <v>1301</v>
+        <v>301</v>
       </c>
       <c r="P39" s="14">
         <v>0</v>
@@ -16367,7 +16302,7 @@
         <v>101</v>
       </c>
       <c r="O40" s="14">
-        <v>1301</v>
+        <v>301</v>
       </c>
       <c r="P40" s="14">
         <v>0</v>
@@ -16417,7 +16352,7 @@
         <v>115</v>
       </c>
       <c r="O41" s="14">
-        <v>1301</v>
+        <v>301</v>
       </c>
       <c r="P41" s="14">
         <v>0</v>
@@ -16467,7 +16402,7 @@
         <v>118</v>
       </c>
       <c r="O42" s="14">
-        <v>1301</v>
+        <v>301</v>
       </c>
       <c r="P42" s="14">
         <v>0</v>
@@ -16517,7 +16452,7 @@
         <v>121</v>
       </c>
       <c r="O43" s="14">
-        <v>1301</v>
+        <v>301</v>
       </c>
       <c r="P43" s="14">
         <v>0</v>
@@ -16818,7 +16753,7 @@
         <v>110</v>
       </c>
       <c r="O49" s="14">
-        <v>1301</v>
+        <v>301</v>
       </c>
       <c r="P49" s="14">
         <v>0</v>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E442B4-8753-435A-9606-1CDFD437247D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ADAA2D-69F3-4C96-BFA1-79E3E5623E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="243">
   <si>
     <t>Id</t>
   </si>
@@ -652,14 +652,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>【赛季】击败敌方5人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在赛季期间击败敌方5人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>占领一个黄金矿</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -677,6 +669,426 @@
   </si>
   <si>
     <t>在挖矿玩法中挑战其他玩家3次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>十连击破</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险家</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险专家</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>领主试炼</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印挑战</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物获取</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备附魔</t>
+  </si>
+  <si>
+    <t>鉴定家</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物融合</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物小成</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物洗礼</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物之战</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗练</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活制造</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物孵化</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊挑战</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物初成</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴定者</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换商人</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>献上宝物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢占矿场</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗练</t>
+  </si>
+  <si>
+    <t>珍宠孵化</t>
+  </si>
+  <si>
+    <t>宠物达成</t>
+  </si>
+  <si>
+    <t>实力代表</t>
+  </si>
+  <si>
+    <t>宠物挑战</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力挑战</t>
+  </si>
+  <si>
+    <t>献上神宠</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运者</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>1;31;10000159</t>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>132</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>135</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>401</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010093</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>在野外击败10个敌方玩家，奖励5个经验盒</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用普通藏宝图10次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用高级藏宝图3次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败10个地狱级领主怪物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印之塔挑战10次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3只全新的宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用附魔道具给自己的装备附魔5次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用鉴定道具给自己的装备鉴定5次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物合成5次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成1只战力达到7000点的宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物使用宠之晶洗炼达到5次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物天梯战斗获胜次数达到10次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗炼达到10次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活技能制造出20个道具</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功孵化5次宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战5次深渊类型的副本</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物合成10次,</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成1只战力达到8000点的宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用90点及以上的鉴定符去鉴定2次装备</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石兑换金币5次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交一个橙色的装备</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>占领1个黄金矿</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗炼达到30次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用珍贵的宠物蛋成功孵化两次宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成一只战力达到9000点的宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼之地输出进入排行前10</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物天梯进入排行榜前10</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力排行榜进入前10</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>占领1个核心矿</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交一只6技能以上的宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练出1个带有隐藏技能的装备</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交一个50级以上鉴定3属性的装备一件</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +1096,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,8 +1252,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="51">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,8 +1566,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1242,6 +1672,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10803,7 +11248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10864,6 +11309,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="51" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="51" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3226">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -14457,10 +14923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:S49"/>
+  <dimension ref="C3:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14617,13 +15083,13 @@
         <v>32</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="R5" s="17" t="s">
         <v>32</v>
@@ -16576,7 +17042,7 @@
         <v>1</v>
       </c>
       <c r="R44" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="3:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -16626,7 +17092,7 @@
         <v>1</v>
       </c>
       <c r="R45" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="3:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -16676,7 +17142,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="3:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -16726,7 +17192,7 @@
         <v>1</v>
       </c>
       <c r="R47" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="3:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -16776,7 +17242,7 @@
         <v>3</v>
       </c>
       <c r="R48" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S48" s="21"/>
     </row>
@@ -16784,8 +17250,8 @@
       <c r="C49" s="8">
         <v>600001</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>130</v>
+      <c r="D49" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="E49" s="8">
         <v>6</v>
@@ -16811,23 +17277,1573 @@
       <c r="L49" s="12">
         <v>0</v>
       </c>
-      <c r="M49" s="2">
-        <v>30000</v>
-      </c>
-      <c r="N49" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O49" s="14">
-        <v>1301</v>
-      </c>
-      <c r="P49" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="14">
-        <v>5</v>
-      </c>
-      <c r="R49" s="19" t="s">
-        <v>131</v>
+      <c r="M49" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N49" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O49" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="P49" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R49" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="8">
+        <v>600002</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="8">
+        <v>6</v>
+      </c>
+      <c r="F50" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
+        <v>1</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="12">
+        <v>0</v>
+      </c>
+      <c r="M50" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N50" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O50" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="P50" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q50" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R50" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="8">
+        <v>600003</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="8">
+        <v>6</v>
+      </c>
+      <c r="F51" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="8">
+        <v>1</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="12">
+        <v>0</v>
+      </c>
+      <c r="M51" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N51" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O51" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="P51" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q51" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="R51" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="8">
+        <v>600004</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="8">
+        <v>6</v>
+      </c>
+      <c r="F52" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="8">
+        <v>1</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+      <c r="M52" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N52" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O52" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="P52" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q52" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R52" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="8">
+        <v>600005</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="8">
+        <v>6</v>
+      </c>
+      <c r="F53" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8">
+        <v>1</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N53" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O53" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P53" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q53" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R53" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="8">
+        <v>600006</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="8">
+        <v>6</v>
+      </c>
+      <c r="F54" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>1</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="12">
+        <v>0</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N54" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O54" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="P54" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q54" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="R54" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="8">
+        <v>600007</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="8">
+        <v>6</v>
+      </c>
+      <c r="F55" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
+      <c r="I55" s="8">
+        <v>1</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="12">
+        <v>0</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N55" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O55" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="P55" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q55" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="R55" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="8">
+        <v>600008</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="8">
+        <v>6</v>
+      </c>
+      <c r="F56" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
+        <v>1</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0</v>
+      </c>
+      <c r="L56" s="12">
+        <v>0</v>
+      </c>
+      <c r="M56" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N56" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O56" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="P56" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q56" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="R56" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="8">
+        <v>600009</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="8">
+        <v>6</v>
+      </c>
+      <c r="F57" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
+        <v>1</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+      <c r="M57" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N57" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O57" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P57" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q57" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="R57" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="8">
+        <v>600010</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="8">
+        <v>6</v>
+      </c>
+      <c r="F58" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58" s="10">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
+        <v>1</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0</v>
+      </c>
+      <c r="K58" s="8">
+        <v>0</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0</v>
+      </c>
+      <c r="M58" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N58" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O58" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="P58" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q58" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R58" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="8">
+        <v>600011</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="8">
+        <v>6</v>
+      </c>
+      <c r="F59" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G59" s="8">
+        <v>1</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>1</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0</v>
+      </c>
+      <c r="K59" s="8">
+        <v>0</v>
+      </c>
+      <c r="L59" s="12">
+        <v>0</v>
+      </c>
+      <c r="M59" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N59" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O59" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="P59" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q59" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="R59" s="27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="8">
+        <v>600012</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="8">
+        <v>6</v>
+      </c>
+      <c r="F60" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
+        <v>1</v>
+      </c>
+      <c r="J60" s="8">
+        <v>0</v>
+      </c>
+      <c r="K60" s="8">
+        <v>0</v>
+      </c>
+      <c r="L60" s="12">
+        <v>0</v>
+      </c>
+      <c r="M60" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N60" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O60" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="P60" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q60" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R60" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="8">
+        <v>600013</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="8">
+        <v>6</v>
+      </c>
+      <c r="F61" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G61" s="8">
+        <v>1</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
+        <v>1</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0</v>
+      </c>
+      <c r="K61" s="8">
+        <v>0</v>
+      </c>
+      <c r="L61" s="12">
+        <v>0</v>
+      </c>
+      <c r="M61" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N61" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O61" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="P61" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q61" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R61" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="8">
+        <v>600014</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="8">
+        <v>6</v>
+      </c>
+      <c r="F62" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G62" s="8">
+        <v>1</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0</v>
+      </c>
+      <c r="K62" s="8">
+        <v>0</v>
+      </c>
+      <c r="L62" s="12">
+        <v>0</v>
+      </c>
+      <c r="M62" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N62" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O62" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P62" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q62" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R62" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="8">
+        <v>600015</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="8">
+        <v>6</v>
+      </c>
+      <c r="F63" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
+        <v>1</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0</v>
+      </c>
+      <c r="K63" s="8">
+        <v>0</v>
+      </c>
+      <c r="L63" s="12">
+        <v>0</v>
+      </c>
+      <c r="M63" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="N63" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O63" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="P63" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q63" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="R63" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="8">
+        <v>600016</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="8">
+        <v>6</v>
+      </c>
+      <c r="F64" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G64" s="8">
+        <v>1</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <v>1</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0</v>
+      </c>
+      <c r="K64" s="8">
+        <v>0</v>
+      </c>
+      <c r="L64" s="12">
+        <v>0</v>
+      </c>
+      <c r="M64" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N64" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O64" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="P64" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q64" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="R64" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="8">
+        <v>600017</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="8">
+        <v>6</v>
+      </c>
+      <c r="F65" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <v>1</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0</v>
+      </c>
+      <c r="K65" s="8">
+        <v>0</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0</v>
+      </c>
+      <c r="M65" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N65" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O65" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P65" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q65" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="R65" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="8">
+        <v>600018</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="8">
+        <v>6</v>
+      </c>
+      <c r="F66" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <v>1</v>
+      </c>
+      <c r="J66" s="8">
+        <v>0</v>
+      </c>
+      <c r="K66" s="8">
+        <v>0</v>
+      </c>
+      <c r="L66" s="12">
+        <v>0</v>
+      </c>
+      <c r="M66" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N66" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O66" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="P66" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q66" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R66" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="8">
+        <v>600019</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="8">
+        <v>6</v>
+      </c>
+      <c r="F67" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G67" s="8">
+        <v>1</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8">
+        <v>1</v>
+      </c>
+      <c r="J67" s="8">
+        <v>0</v>
+      </c>
+      <c r="K67" s="8">
+        <v>0</v>
+      </c>
+      <c r="L67" s="12">
+        <v>0</v>
+      </c>
+      <c r="M67" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N67" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O67" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="P67" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q67" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="R67" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="8">
+        <v>600020</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="8">
+        <v>6</v>
+      </c>
+      <c r="F68" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G68" s="8">
+        <v>1</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0</v>
+      </c>
+      <c r="I68" s="8">
+        <v>1</v>
+      </c>
+      <c r="J68" s="8">
+        <v>0</v>
+      </c>
+      <c r="K68" s="8">
+        <v>0</v>
+      </c>
+      <c r="L68" s="12">
+        <v>0</v>
+      </c>
+      <c r="M68" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N68" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O68" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="P68" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q68" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="R68" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="8">
+        <v>600021</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="8">
+        <v>6</v>
+      </c>
+      <c r="F69" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G69" s="8">
+        <v>1</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <v>1</v>
+      </c>
+      <c r="J69" s="8">
+        <v>0</v>
+      </c>
+      <c r="K69" s="8">
+        <v>0</v>
+      </c>
+      <c r="L69" s="12">
+        <v>0</v>
+      </c>
+      <c r="M69" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="N69" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O69" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P69" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q69" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="R69" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="8">
+        <v>600022</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="8">
+        <v>6</v>
+      </c>
+      <c r="F70" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <v>1</v>
+      </c>
+      <c r="J70" s="8">
+        <v>0</v>
+      </c>
+      <c r="K70" s="8">
+        <v>0</v>
+      </c>
+      <c r="L70" s="12">
+        <v>0</v>
+      </c>
+      <c r="M70" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N70" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O70" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="P70" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q70" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R70" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="8">
+        <v>600023</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="8">
+        <v>6</v>
+      </c>
+      <c r="F71" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G71" s="8">
+        <v>1</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <v>1</v>
+      </c>
+      <c r="J71" s="8">
+        <v>0</v>
+      </c>
+      <c r="K71" s="8">
+        <v>0</v>
+      </c>
+      <c r="L71" s="12">
+        <v>0</v>
+      </c>
+      <c r="M71" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N71" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="P71" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q71" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="R71" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="8">
+        <v>600024</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="8">
+        <v>6</v>
+      </c>
+      <c r="F72" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G72" s="8">
+        <v>1</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <v>1</v>
+      </c>
+      <c r="J72" s="8">
+        <v>0</v>
+      </c>
+      <c r="K72" s="8">
+        <v>0</v>
+      </c>
+      <c r="L72" s="12">
+        <v>0</v>
+      </c>
+      <c r="M72" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N72" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O72" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="P72" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q72" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="R72" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="8">
+        <v>600025</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" s="8">
+        <v>6</v>
+      </c>
+      <c r="F73" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G73" s="8">
+        <v>1</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <v>1</v>
+      </c>
+      <c r="J73" s="8">
+        <v>0</v>
+      </c>
+      <c r="K73" s="8">
+        <v>0</v>
+      </c>
+      <c r="L73" s="12">
+        <v>0</v>
+      </c>
+      <c r="M73" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="N73" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O73" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="P73" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q73" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R73" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="8">
+        <v>600026</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" s="8">
+        <v>6</v>
+      </c>
+      <c r="F74" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G74" s="8">
+        <v>1</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+      <c r="I74" s="8">
+        <v>1</v>
+      </c>
+      <c r="J74" s="8">
+        <v>0</v>
+      </c>
+      <c r="K74" s="8">
+        <v>0</v>
+      </c>
+      <c r="L74" s="12">
+        <v>0</v>
+      </c>
+      <c r="M74" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="N74" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O74" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="P74" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q74" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R74" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="8">
+        <v>600027</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="8">
+        <v>6</v>
+      </c>
+      <c r="F75" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G75" s="8">
+        <v>1</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
+        <v>1</v>
+      </c>
+      <c r="J75" s="8">
+        <v>0</v>
+      </c>
+      <c r="K75" s="8">
+        <v>0</v>
+      </c>
+      <c r="L75" s="12">
+        <v>0</v>
+      </c>
+      <c r="M75" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="N75" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O75" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="P75" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q75" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R75" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="8">
+        <v>600028</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" s="8">
+        <v>6</v>
+      </c>
+      <c r="F76" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G76" s="8">
+        <v>1</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+      <c r="I76" s="8">
+        <v>1</v>
+      </c>
+      <c r="J76" s="8">
+        <v>0</v>
+      </c>
+      <c r="K76" s="8">
+        <v>0</v>
+      </c>
+      <c r="L76" s="12">
+        <v>0</v>
+      </c>
+      <c r="M76" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="N76" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O76" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="P76" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q76" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R76" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="8">
+        <v>600029</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="8">
+        <v>6</v>
+      </c>
+      <c r="F77" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G77" s="8">
+        <v>1</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+      <c r="I77" s="8">
+        <v>1</v>
+      </c>
+      <c r="J77" s="8">
+        <v>0</v>
+      </c>
+      <c r="K77" s="8">
+        <v>0</v>
+      </c>
+      <c r="L77" s="12">
+        <v>0</v>
+      </c>
+      <c r="M77" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="N77" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O77" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="P77" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q77" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R77" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="8">
+        <v>600030</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="8">
+        <v>6</v>
+      </c>
+      <c r="F78" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G78" s="8">
+        <v>1</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+      <c r="I78" s="8">
+        <v>1</v>
+      </c>
+      <c r="J78" s="8">
+        <v>0</v>
+      </c>
+      <c r="K78" s="8">
+        <v>0</v>
+      </c>
+      <c r="L78" s="12">
+        <v>0</v>
+      </c>
+      <c r="M78" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="N78" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O78" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="P78" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q78" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="R78" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="8">
+        <v>600031</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" s="8">
+        <v>6</v>
+      </c>
+      <c r="F79" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G79" s="8">
+        <v>1</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+      <c r="I79" s="8">
+        <v>1</v>
+      </c>
+      <c r="J79" s="8">
+        <v>0</v>
+      </c>
+      <c r="K79" s="8">
+        <v>0</v>
+      </c>
+      <c r="L79" s="12">
+        <v>0</v>
+      </c>
+      <c r="M79" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="N79" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O79" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="P79" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q79" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R79" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="8">
+        <v>600032</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" s="8">
+        <v>6</v>
+      </c>
+      <c r="F80" s="8">
+        <v>100014</v>
+      </c>
+      <c r="G80" s="8">
+        <v>1</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0</v>
+      </c>
+      <c r="I80" s="8">
+        <v>1</v>
+      </c>
+      <c r="J80" s="8">
+        <v>0</v>
+      </c>
+      <c r="K80" s="8">
+        <v>0</v>
+      </c>
+      <c r="L80" s="12">
+        <v>0</v>
+      </c>
+      <c r="M80" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="N80" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O80" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="P80" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q80" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="R80" s="27" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ADAA2D-69F3-4C96-BFA1-79E3E5623E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F231FA-6B3E-44CD-A2FD-BFA01CA0EBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="245">
   <si>
     <t>Id</t>
   </si>
@@ -791,9 +791,6 @@
     <t>200000</t>
   </si>
   <si>
-    <t>1;31;10000159</t>
-  </si>
-  <si>
     <t>21</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1090,6 +1087,15 @@
   <si>
     <t>int[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100000@31;20@;10000159;5</t>
+  </si>
+  <si>
+    <t>1;150000@31;30@;10000159;5</t>
+  </si>
+  <si>
+    <t>1;200000@31;40@;10000159;10</t>
   </si>
 </sst>
 </file>
@@ -14925,8 +14931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="D56" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15083,13 +15089,13 @@
         <v>32</v>
       </c>
       <c r="O5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="R5" s="17" t="s">
         <v>32</v>
@@ -17281,19 +17287,19 @@
         <v>164</v>
       </c>
       <c r="N49" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O49" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="O49" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="P49" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Q49" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R49" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17331,19 +17337,19 @@
         <v>164</v>
       </c>
       <c r="N50" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O50" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="P50" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="P50" s="22" t="s">
-        <v>171</v>
-      </c>
       <c r="Q50" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R50" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17381,19 +17387,19 @@
         <v>164</v>
       </c>
       <c r="N51" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O51" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="P51" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q51" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="P51" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q51" s="22" t="s">
-        <v>173</v>
-      </c>
       <c r="R51" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17431,19 +17437,19 @@
         <v>164</v>
       </c>
       <c r="N52" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P52" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q52" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R52" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17481,19 +17487,19 @@
         <v>164</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P53" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q53" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R53" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17531,19 +17537,19 @@
         <v>164</v>
       </c>
       <c r="N54" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q54" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R54" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17581,19 +17587,19 @@
         <v>164</v>
       </c>
       <c r="N55" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O55" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="P55" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="P55" s="22" t="s">
+      <c r="Q55" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="Q55" s="22" t="s">
-        <v>179</v>
-      </c>
       <c r="R55" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17631,19 +17637,19 @@
         <v>164</v>
       </c>
       <c r="N56" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O56" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P56" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q56" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="Q56" s="22" t="s">
-        <v>179</v>
-      </c>
       <c r="R56" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17681,19 +17687,19 @@
         <v>164</v>
       </c>
       <c r="N57" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P57" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q57" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R57" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17731,19 +17737,19 @@
         <v>164</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O58" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P58" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="P58" s="22" t="s">
-        <v>183</v>
-      </c>
       <c r="Q58" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R58" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17781,19 +17787,19 @@
         <v>164</v>
       </c>
       <c r="N59" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P59" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q59" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R59" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17831,19 +17837,19 @@
         <v>164</v>
       </c>
       <c r="N60" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P60" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q60" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R60" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17881,19 +17887,19 @@
         <v>164</v>
       </c>
       <c r="N61" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O61" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P61" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q61" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R61" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17931,19 +17937,19 @@
         <v>164</v>
       </c>
       <c r="N62" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P62" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q62" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R62" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17981,19 +17987,19 @@
         <v>164</v>
       </c>
       <c r="N63" s="26" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O63" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P63" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q63" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R63" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18031,19 +18037,19 @@
         <v>165</v>
       </c>
       <c r="N64" s="26" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O64" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P64" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q64" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R64" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18081,19 +18087,19 @@
         <v>165</v>
       </c>
       <c r="N65" s="26" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O65" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P65" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q65" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R65" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18131,19 +18137,19 @@
         <v>165</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O66" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P66" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q66" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R66" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18181,19 +18187,19 @@
         <v>165</v>
       </c>
       <c r="N67" s="26" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O67" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P67" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q67" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="Q67" s="22" t="s">
-        <v>192</v>
-      </c>
       <c r="R67" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18231,19 +18237,19 @@
         <v>165</v>
       </c>
       <c r="N68" s="26" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O68" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P68" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q68" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R68" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18281,19 +18287,19 @@
         <v>165</v>
       </c>
       <c r="N69" s="26" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O69" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P69" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q69" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R69" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18331,19 +18337,19 @@
         <v>165</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O70" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="P70" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P70" s="22" t="s">
-        <v>195</v>
-      </c>
       <c r="Q70" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R70" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18381,19 +18387,19 @@
         <v>165</v>
       </c>
       <c r="N71" s="26" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q71" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R71" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18431,19 +18437,19 @@
         <v>165</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="O72" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="P72" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="P72" s="22" t="s">
-        <v>198</v>
-      </c>
       <c r="Q72" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R72" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18481,19 +18487,19 @@
         <v>166</v>
       </c>
       <c r="N73" s="26" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="O73" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q73" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R73" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18531,19 +18537,19 @@
         <v>166</v>
       </c>
       <c r="N74" s="26" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="O74" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P74" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q74" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R74" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18581,19 +18587,19 @@
         <v>166</v>
       </c>
       <c r="N75" s="26" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="O75" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P75" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q75" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R75" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18631,19 +18637,19 @@
         <v>166</v>
       </c>
       <c r="N76" s="26" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P76" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q76" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R76" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18681,19 +18687,19 @@
         <v>166</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="O77" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P77" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q77" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R77" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18731,19 +18737,19 @@
         <v>166</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="O78" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="P78" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q78" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="P78" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q78" s="22" t="s">
-        <v>204</v>
-      </c>
       <c r="R78" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18781,19 +18787,19 @@
         <v>166</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="O79" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P79" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q79" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R79" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18831,19 +18837,19 @@
         <v>166</v>
       </c>
       <c r="N80" s="26" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="O80" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P80" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q80" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="Q80" s="22" t="s">
-        <v>207</v>
-      </c>
       <c r="R80" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F231FA-6B3E-44CD-A2FD-BFA01CA0EBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D53C21F-C29C-478F-A83F-3E46C1EE37BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="525" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="248">
   <si>
     <t>Id</t>
   </si>
@@ -1089,13 +1089,25 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1;100000@31;20@;10000159;5</t>
-  </si>
-  <si>
-    <t>1;150000@31;30@;10000159;5</t>
-  </si>
-  <si>
-    <t>1;200000@31;40@;10000159;10</t>
+    <t>1;100000@31;20@10000159;5</t>
+  </si>
+  <si>
+    <t>1;150000@31;30@10000159;5</t>
+  </si>
+  <si>
+    <t>1;200000@31;40@10000159;10</t>
+  </si>
+  <si>
+    <t>随机2个</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机3个</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机5个</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11254,7 +11266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11335,6 +11347,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3226">
@@ -14929,10 +14944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:S80"/>
+  <dimension ref="C3:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D56" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="I46" workbookViewId="0">
+      <selection activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17252,9 +17267,9 @@
       </c>
       <c r="S48" s="21"/>
     </row>
-    <row r="49" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="8">
-        <v>600001</v>
+        <v>600101</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>135</v>
@@ -17301,10 +17316,13 @@
       <c r="R49" s="27" t="s">
         <v>207</v>
       </c>
+      <c r="T49" s="29" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="50" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="8">
-        <v>600002</v>
+        <v>600102</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>136</v>
@@ -17352,9 +17370,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="8">
-        <v>600003</v>
+        <v>600103</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>137</v>
@@ -17402,9 +17420,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="8">
-        <v>600004</v>
+        <v>600104</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>138</v>
@@ -17452,9 +17470,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="8">
-        <v>600005</v>
+        <v>600105</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>139</v>
@@ -17502,9 +17520,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="8">
-        <v>600006</v>
+        <v>600106</v>
       </c>
       <c r="D54" s="22" t="s">
         <v>140</v>
@@ -17552,9 +17570,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="8">
-        <v>600007</v>
+        <v>600107</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>141</v>
@@ -17602,9 +17620,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="8">
-        <v>600008</v>
+        <v>600108</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>142</v>
@@ -17652,9 +17670,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="8">
-        <v>600009</v>
+        <v>600109</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>143</v>
@@ -17702,9 +17720,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="8">
-        <v>600010</v>
+        <v>600110</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>144</v>
@@ -17752,9 +17770,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="8">
-        <v>600011</v>
+        <v>600111</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>145</v>
@@ -17802,9 +17820,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="8">
-        <v>600012</v>
+        <v>600112</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>146</v>
@@ -17852,9 +17870,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="8">
-        <v>600013</v>
+        <v>600113</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>147</v>
@@ -17902,9 +17920,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="8">
-        <v>600014</v>
+        <v>600114</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>148</v>
@@ -17952,9 +17970,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="8">
-        <v>600015</v>
+        <v>600115</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>149</v>
@@ -18002,9 +18020,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="8">
-        <v>600016</v>
+        <v>600201</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>150</v>
@@ -18051,10 +18069,13 @@
       <c r="R64" s="27" t="s">
         <v>222</v>
       </c>
+      <c r="T64" s="29" t="s">
+        <v>246</v>
+      </c>
     </row>
-    <row r="65" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="8">
-        <v>600017</v>
+        <v>600202</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>143</v>
@@ -18102,9 +18123,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="8">
-        <v>600018</v>
+        <v>600203</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>151</v>
@@ -18152,9 +18173,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="8">
-        <v>600019</v>
+        <v>600204</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>152</v>
@@ -18202,9 +18223,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="8">
-        <v>600020</v>
+        <v>600205</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>153</v>
@@ -18252,9 +18273,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="69" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="8">
-        <v>600021</v>
+        <v>600206</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>154</v>
@@ -18302,9 +18323,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="8">
-        <v>600022</v>
+        <v>600207</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>155</v>
@@ -18352,9 +18373,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="8">
-        <v>600023</v>
+        <v>600208</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>156</v>
@@ -18402,9 +18423,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="8">
-        <v>600024</v>
+        <v>600209</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>157</v>
@@ -18452,9 +18473,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="8">
-        <v>600025</v>
+        <v>600301</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>158</v>
@@ -18501,10 +18522,13 @@
       <c r="R73" s="27" t="s">
         <v>231</v>
       </c>
+      <c r="T73" s="29" t="s">
+        <v>245</v>
+      </c>
     </row>
-    <row r="74" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="8">
-        <v>600026</v>
+        <v>600302</v>
       </c>
       <c r="D74" s="22" t="s">
         <v>159</v>
@@ -18552,9 +18576,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="8">
-        <v>600027</v>
+        <v>600303</v>
       </c>
       <c r="D75" s="22" t="s">
         <v>160</v>
@@ -18602,9 +18626,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="8">
-        <v>600028</v>
+        <v>600304</v>
       </c>
       <c r="D76" s="22" t="s">
         <v>161</v>
@@ -18652,9 +18676,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="8">
-        <v>600029</v>
+        <v>600305</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>155</v>
@@ -18702,9 +18726,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="8">
-        <v>600030</v>
+        <v>600306</v>
       </c>
       <c r="D78" s="22" t="s">
         <v>162</v>
@@ -18752,9 +18776,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="8">
-        <v>600031</v>
+        <v>600307</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>163</v>
@@ -18802,9 +18826,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="8">
-        <v>600032</v>
+        <v>600308</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>154</v>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D53C21F-C29C-478F-A83F-3E46C1EE37BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B04C5ED-B7C5-4C75-BE40-FDB830E1D43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="525" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -915,10 +915,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>9000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>81</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1017,10 +1013,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>合成1只战力达到8000点的宠物</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>使用90点及以上的鉴定符去鉴定2次装备</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1045,10 +1037,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>合成一只战力达到9000点的宠物</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>试炼之地输出进入排行前10</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1108,6 +1096,18 @@
   <si>
     <t>随机5个</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成1只战力达到6000点的宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成一只战力达到8000点的宠物</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11348,7 +11348,7 @@
     <xf numFmtId="0" fontId="21" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14946,8 +14946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I46" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+    <sheetView tabSelected="1" topLeftCell="I52" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15104,13 +15104,13 @@
         <v>32</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R5" s="17" t="s">
         <v>32</v>
@@ -17302,7 +17302,7 @@
         <v>164</v>
       </c>
       <c r="N49" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O49" s="22" t="s">
         <v>167</v>
@@ -17314,10 +17314,10 @@
         <v>168</v>
       </c>
       <c r="R49" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T49" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17355,7 +17355,7 @@
         <v>164</v>
       </c>
       <c r="N50" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O50" s="22" t="s">
         <v>169</v>
@@ -17367,7 +17367,7 @@
         <v>168</v>
       </c>
       <c r="R50" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17405,7 +17405,7 @@
         <v>164</v>
       </c>
       <c r="N51" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O51" s="22" t="s">
         <v>171</v>
@@ -17417,7 +17417,7 @@
         <v>172</v>
       </c>
       <c r="R51" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17455,7 +17455,7 @@
         <v>164</v>
       </c>
       <c r="N52" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O52" s="22" t="s">
         <v>173</v>
@@ -17467,7 +17467,7 @@
         <v>168</v>
       </c>
       <c r="R52" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17505,7 +17505,7 @@
         <v>164</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O53" s="22" t="s">
         <v>174</v>
@@ -17517,7 +17517,7 @@
         <v>168</v>
       </c>
       <c r="R53" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17555,7 +17555,7 @@
         <v>164</v>
       </c>
       <c r="N54" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O54" s="22" t="s">
         <v>175</v>
@@ -17567,7 +17567,7 @@
         <v>172</v>
       </c>
       <c r="R54" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17605,7 +17605,7 @@
         <v>164</v>
       </c>
       <c r="N55" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O55" s="22" t="s">
         <v>176</v>
@@ -17617,7 +17617,7 @@
         <v>178</v>
       </c>
       <c r="R55" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17655,7 +17655,7 @@
         <v>164</v>
       </c>
       <c r="N56" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O56" s="22" t="s">
         <v>179</v>
@@ -17667,7 +17667,7 @@
         <v>178</v>
       </c>
       <c r="R56" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17705,7 +17705,7 @@
         <v>164</v>
       </c>
       <c r="N57" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O57" s="22" t="s">
         <v>180</v>
@@ -17717,7 +17717,7 @@
         <v>178</v>
       </c>
       <c r="R57" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17755,19 +17755,19 @@
         <v>164</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O58" s="22" t="s">
         <v>181</v>
       </c>
       <c r="P58" s="22" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="Q58" s="22" t="s">
         <v>177</v>
       </c>
       <c r="R58" s="27" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17805,7 +17805,7 @@
         <v>164</v>
       </c>
       <c r="N59" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O59" s="22" t="s">
         <v>183</v>
@@ -17817,7 +17817,7 @@
         <v>178</v>
       </c>
       <c r="R59" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17855,7 +17855,7 @@
         <v>164</v>
       </c>
       <c r="N60" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O60" s="22" t="s">
         <v>184</v>
@@ -17867,7 +17867,7 @@
         <v>168</v>
       </c>
       <c r="R60" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17905,7 +17905,7 @@
         <v>164</v>
       </c>
       <c r="N61" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O61" s="22" t="s">
         <v>185</v>
@@ -17917,7 +17917,7 @@
         <v>168</v>
       </c>
       <c r="R61" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17955,7 +17955,7 @@
         <v>164</v>
       </c>
       <c r="N62" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O62" s="22" t="s">
         <v>186</v>
@@ -17967,7 +17967,7 @@
         <v>168</v>
       </c>
       <c r="R62" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18005,7 +18005,7 @@
         <v>164</v>
       </c>
       <c r="N63" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O63" s="22" t="s">
         <v>187</v>
@@ -18017,7 +18017,7 @@
         <v>178</v>
       </c>
       <c r="R63" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18055,7 +18055,7 @@
         <v>165</v>
       </c>
       <c r="N64" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O64" s="22" t="s">
         <v>188</v>
@@ -18067,10 +18067,10 @@
         <v>178</v>
       </c>
       <c r="R64" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T64" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18108,7 +18108,7 @@
         <v>165</v>
       </c>
       <c r="N65" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O65" s="22" t="s">
         <v>180</v>
@@ -18120,7 +18120,7 @@
         <v>168</v>
       </c>
       <c r="R65" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18158,19 +18158,19 @@
         <v>165</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O66" s="22" t="s">
         <v>181</v>
       </c>
       <c r="P66" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Q66" s="22" t="s">
         <v>177</v>
       </c>
       <c r="R66" s="27" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18208,7 +18208,7 @@
         <v>165</v>
       </c>
       <c r="N67" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O67" s="22" t="s">
         <v>179</v>
@@ -18220,7 +18220,7 @@
         <v>191</v>
       </c>
       <c r="R67" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18258,7 +18258,7 @@
         <v>165</v>
       </c>
       <c r="N68" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O68" s="22" t="s">
         <v>192</v>
@@ -18270,7 +18270,7 @@
         <v>178</v>
       </c>
       <c r="R68" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18308,7 +18308,7 @@
         <v>165</v>
       </c>
       <c r="N69" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O69" s="23" t="s">
         <v>168</v>
@@ -18320,7 +18320,7 @@
         <v>178</v>
       </c>
       <c r="R69" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18358,7 +18358,7 @@
         <v>165</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O70" s="22" t="s">
         <v>193</v>
@@ -18370,7 +18370,7 @@
         <v>177</v>
       </c>
       <c r="R70" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18408,7 +18408,7 @@
         <v>165</v>
       </c>
       <c r="N71" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O71" s="22" t="s">
         <v>185</v>
@@ -18420,7 +18420,7 @@
         <v>195</v>
       </c>
       <c r="R71" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18458,7 +18458,7 @@
         <v>165</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O72" s="22" t="s">
         <v>196</v>
@@ -18470,7 +18470,7 @@
         <v>191</v>
       </c>
       <c r="R72" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18508,22 +18508,22 @@
         <v>166</v>
       </c>
       <c r="N73" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O73" s="22" t="s">
         <v>181</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="Q73" s="22" t="s">
         <v>177</v>
       </c>
       <c r="R73" s="27" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="T73" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18561,10 +18561,10 @@
         <v>166</v>
       </c>
       <c r="N74" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O74" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P74" s="22" t="s">
         <v>168</v>
@@ -18573,7 +18573,7 @@
         <v>177</v>
       </c>
       <c r="R74" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18611,10 +18611,10 @@
         <v>166</v>
       </c>
       <c r="N75" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O75" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P75" s="22" t="s">
         <v>168</v>
@@ -18623,7 +18623,7 @@
         <v>177</v>
       </c>
       <c r="R75" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18661,10 +18661,10 @@
         <v>166</v>
       </c>
       <c r="N76" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P76" s="22" t="s">
         <v>168</v>
@@ -18673,7 +18673,7 @@
         <v>177</v>
       </c>
       <c r="R76" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18711,7 +18711,7 @@
         <v>166</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O77" s="22" t="s">
         <v>193</v>
@@ -18723,7 +18723,7 @@
         <v>177</v>
       </c>
       <c r="R77" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18761,19 +18761,19 @@
         <v>166</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O78" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P78" s="22" t="s">
         <v>191</v>
       </c>
       <c r="Q78" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R78" s="27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18811,10 +18811,10 @@
         <v>166</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O79" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P79" s="22" t="s">
         <v>170</v>
@@ -18823,7 +18823,7 @@
         <v>177</v>
       </c>
       <c r="R79" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18861,19 +18861,19 @@
         <v>166</v>
       </c>
       <c r="N80" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O80" s="22" t="s">
         <v>168</v>
       </c>
       <c r="P80" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q80" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="Q80" s="22" t="s">
-        <v>206</v>
-      </c>
       <c r="R80" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B04C5ED-B7C5-4C75-BE40-FDB830E1D43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E528D524-34AE-4CB8-9252-1E61158C3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,8 @@
         public const int ShowLie = 3;    //狩猎任务
         public const int UnionRace = 4;  //家族战
         public const int Mine = 5;       //宠物矿场
-        public const int Season = 6;     //赛季任务</t>
+        public const int Season = 6;     //赛季任务
+        public const int ActivityV1 = 7; //活动每日任</t>
         </r>
       </text>
     </comment>
@@ -253,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="248">
   <si>
     <t>Id</t>
   </si>
@@ -14944,10 +14945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:T80"/>
+  <dimension ref="C3:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I52" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18876,6 +18877,356 @@
         <v>235</v>
       </c>
     </row>
+    <row r="81" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="8">
+        <v>700011</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="8">
+        <v>7</v>
+      </c>
+      <c r="F81" s="8">
+        <v>100001</v>
+      </c>
+      <c r="G81" s="8">
+        <v>1</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+      <c r="I81" s="8">
+        <v>1</v>
+      </c>
+      <c r="J81" s="8">
+        <v>0</v>
+      </c>
+      <c r="K81" s="8">
+        <v>0</v>
+      </c>
+      <c r="L81" s="12">
+        <v>5</v>
+      </c>
+      <c r="M81" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O81" s="14">
+        <v>1001</v>
+      </c>
+      <c r="P81" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="14">
+        <v>1</v>
+      </c>
+      <c r="R81" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="8">
+        <v>700021</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="8">
+        <v>7</v>
+      </c>
+      <c r="F82" s="8">
+        <v>100002</v>
+      </c>
+      <c r="G82" s="8">
+        <v>1</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+      <c r="I82" s="8">
+        <v>1</v>
+      </c>
+      <c r="J82" s="8">
+        <v>0</v>
+      </c>
+      <c r="K82" s="8">
+        <v>0</v>
+      </c>
+      <c r="L82" s="12">
+        <v>10</v>
+      </c>
+      <c r="M82" s="2">
+        <v>4500</v>
+      </c>
+      <c r="N82" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O82" s="14">
+        <v>1002</v>
+      </c>
+      <c r="P82" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="14">
+        <v>30</v>
+      </c>
+      <c r="R82" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="8">
+        <v>700031</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="8">
+        <v>7</v>
+      </c>
+      <c r="F83" s="8">
+        <v>100003</v>
+      </c>
+      <c r="G83" s="8">
+        <v>1</v>
+      </c>
+      <c r="H83" s="10">
+        <v>0</v>
+      </c>
+      <c r="I83" s="8">
+        <v>1</v>
+      </c>
+      <c r="J83" s="8">
+        <v>0</v>
+      </c>
+      <c r="K83" s="8">
+        <v>0</v>
+      </c>
+      <c r="L83" s="12">
+        <v>10</v>
+      </c>
+      <c r="M83" s="2">
+        <v>15000</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O83" s="15">
+        <v>1003</v>
+      </c>
+      <c r="P83" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="15">
+        <v>3</v>
+      </c>
+      <c r="R83" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="8">
+        <v>700041</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="8">
+        <v>7</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="8">
+        <v>1</v>
+      </c>
+      <c r="H84" s="10">
+        <v>0</v>
+      </c>
+      <c r="I84" s="8">
+        <v>1</v>
+      </c>
+      <c r="J84" s="8">
+        <v>0</v>
+      </c>
+      <c r="K84" s="8">
+        <v>0</v>
+      </c>
+      <c r="L84" s="12">
+        <v>10</v>
+      </c>
+      <c r="M84" s="2">
+        <v>15000</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O84" s="15">
+        <v>1004</v>
+      </c>
+      <c r="P84" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="15">
+        <v>1</v>
+      </c>
+      <c r="R84" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="8">
+        <v>700051</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="8">
+        <v>7</v>
+      </c>
+      <c r="F85" s="8">
+        <v>100005</v>
+      </c>
+      <c r="G85" s="8">
+        <v>1</v>
+      </c>
+      <c r="H85" s="8">
+        <v>100052</v>
+      </c>
+      <c r="I85" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0</v>
+      </c>
+      <c r="K85" s="8">
+        <v>0</v>
+      </c>
+      <c r="L85" s="12">
+        <v>10</v>
+      </c>
+      <c r="M85" s="2">
+        <v>6000</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O85" s="14">
+        <v>1005</v>
+      </c>
+      <c r="P85" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="14">
+        <v>100000</v>
+      </c>
+      <c r="R85" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="8">
+        <v>700052</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="8">
+        <v>7</v>
+      </c>
+      <c r="F86" s="8">
+        <v>100052</v>
+      </c>
+      <c r="G86" s="8">
+        <v>1</v>
+      </c>
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
+      <c r="I86" s="8">
+        <v>1</v>
+      </c>
+      <c r="J86" s="8">
+        <v>0</v>
+      </c>
+      <c r="K86" s="8">
+        <v>0</v>
+      </c>
+      <c r="L86" s="12">
+        <v>10</v>
+      </c>
+      <c r="M86" s="2">
+        <v>6000</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O86" s="14">
+        <v>1014</v>
+      </c>
+      <c r="P86" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="14">
+        <v>3</v>
+      </c>
+      <c r="R86" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="8">
+        <v>700061</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" s="8">
+        <v>7</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G87" s="8">
+        <v>1</v>
+      </c>
+      <c r="H87" s="8">
+        <v>100062</v>
+      </c>
+      <c r="I87" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="J87" s="8">
+        <v>0</v>
+      </c>
+      <c r="K87" s="8">
+        <v>0</v>
+      </c>
+      <c r="L87" s="12">
+        <v>10</v>
+      </c>
+      <c r="M87" s="2">
+        <v>6000</v>
+      </c>
+      <c r="N87" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O87" s="15">
+        <v>1006</v>
+      </c>
+      <c r="P87" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="15">
+        <v>1</v>
+      </c>
+      <c r="R87" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskCountryConfig.xlsx
+++ b/Excel/TaskCountryConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E528D524-34AE-4CB8-9252-1E61158C3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A58C67-1AD1-4A49-A777-7DF87AF02B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskCountryProto" sheetId="1" r:id="rId1"/>
@@ -744,10 +744,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>兑换商人</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>献上宝物</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -892,10 +888,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>15</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>401</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1018,10 +1010,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>钻石兑换金币5次</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>上交一个橙色的装备</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1108,6 +1096,18 @@
   </si>
   <si>
     <t>6000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗炼达到20次</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师洗练</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -14947,8 +14947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15105,13 +15105,13 @@
         <v>32</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="R5" s="17" t="s">
         <v>32</v>
@@ -17300,25 +17300,25 @@
         <v>0</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N49" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P49" s="22" t="s">
         <v>35</v>
       </c>
       <c r="Q49" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R49" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T49" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17353,22 +17353,22 @@
         <v>0</v>
       </c>
       <c r="M50" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N50" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O50" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="P50" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="P50" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="Q50" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R50" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17403,22 +17403,22 @@
         <v>0</v>
       </c>
       <c r="M51" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N51" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O51" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="P51" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q51" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="P51" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q51" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="R51" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17453,22 +17453,22 @@
         <v>0</v>
       </c>
       <c r="M52" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N52" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P52" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q52" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R52" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17503,22 +17503,22 @@
         <v>0</v>
       </c>
       <c r="M53" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N53" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P53" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q53" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R53" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17553,22 +17553,22 @@
         <v>0</v>
       </c>
       <c r="M54" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N54" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q54" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R54" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17603,22 +17603,22 @@
         <v>0</v>
       </c>
       <c r="M55" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N55" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O55" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P55" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="P55" s="22" t="s">
+      <c r="Q55" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="Q55" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="R55" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17653,22 +17653,22 @@
         <v>0</v>
       </c>
       <c r="M56" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N56" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O56" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P56" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q56" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="Q56" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="R56" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17703,22 +17703,22 @@
         <v>0</v>
       </c>
       <c r="M57" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N57" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P57" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q57" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R57" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17753,22 +17753,22 @@
         <v>0</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O58" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P58" s="22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q58" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R58" s="27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17803,22 +17803,22 @@
         <v>0</v>
       </c>
       <c r="M59" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N59" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P59" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q59" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R59" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17853,22 +17853,22 @@
         <v>0</v>
       </c>
       <c r="M60" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N60" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P60" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q60" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R60" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17903,22 +17903,22 @@
         <v>0</v>
       </c>
       <c r="M61" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N61" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O61" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P61" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q61" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R61" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -17953,22 +17953,22 @@
         <v>0</v>
       </c>
       <c r="M62" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N62" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P62" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q62" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R62" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18003,22 +18003,22 @@
         <v>0</v>
       </c>
       <c r="M63" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N63" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O63" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P63" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q63" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R63" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18053,25 +18053,25 @@
         <v>0</v>
       </c>
       <c r="M64" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N64" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O64" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="P64" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q64" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="R64" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="T64" s="29" t="s">
         <v>240</v>
-      </c>
-      <c r="O64" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="P64" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q64" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="R64" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="T64" s="29" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="65" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18106,22 +18106,22 @@
         <v>0</v>
       </c>
       <c r="M65" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N65" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O65" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P65" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q65" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R65" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18156,22 +18156,22 @@
         <v>0</v>
       </c>
       <c r="M66" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N66" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O66" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="P66" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="P66" s="22" t="s">
-        <v>182</v>
-      </c>
       <c r="Q66" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R66" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18206,22 +18206,22 @@
         <v>0</v>
       </c>
       <c r="M67" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N67" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O67" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P67" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q67" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="Q67" s="22" t="s">
-        <v>191</v>
-      </c>
       <c r="R67" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18229,7 +18229,7 @@
         <v>600205</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="E68" s="8">
         <v>6</v>
@@ -18256,22 +18256,22 @@
         <v>0</v>
       </c>
       <c r="M68" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N68" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O68" s="22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P68" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q68" s="22" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="R68" s="27" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18279,7 +18279,7 @@
         <v>600206</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E69" s="8">
         <v>6</v>
@@ -18306,22 +18306,22 @@
         <v>0</v>
       </c>
       <c r="M69" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N69" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O69" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P69" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q69" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R69" s="28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18329,7 +18329,7 @@
         <v>600207</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" s="8">
         <v>6</v>
@@ -18356,22 +18356,22 @@
         <v>0</v>
       </c>
       <c r="M70" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O70" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P70" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q70" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R70" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18379,7 +18379,7 @@
         <v>600208</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E71" s="8">
         <v>6</v>
@@ -18406,22 +18406,22 @@
         <v>0</v>
       </c>
       <c r="M71" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N71" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q71" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R71" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18429,7 +18429,7 @@
         <v>600209</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" s="8">
         <v>6</v>
@@ -18456,22 +18456,22 @@
         <v>0</v>
       </c>
       <c r="M72" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O72" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P72" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q72" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R72" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18479,7 +18479,7 @@
         <v>600301</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E73" s="8">
         <v>6</v>
@@ -18506,25 +18506,25 @@
         <v>0</v>
       </c>
       <c r="M73" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N73" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O73" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q73" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R73" s="27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="T73" s="29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18532,7 +18532,7 @@
         <v>600302</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E74" s="8">
         <v>6</v>
@@ -18559,22 +18559,22 @@
         <v>0</v>
       </c>
       <c r="M74" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N74" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O74" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P74" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q74" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R74" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18582,7 +18582,7 @@
         <v>600303</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E75" s="8">
         <v>6</v>
@@ -18609,22 +18609,22 @@
         <v>0</v>
       </c>
       <c r="M75" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N75" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O75" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P75" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q75" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R75" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18632,7 +18632,7 @@
         <v>600304</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E76" s="8">
         <v>6</v>
@@ -18659,22 +18659,22 @@
         <v>0</v>
       </c>
       <c r="M76" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N76" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P76" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q76" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R76" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18682,7 +18682,7 @@
         <v>600305</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E77" s="8">
         <v>6</v>
@@ -18709,22 +18709,22 @@
         <v>0</v>
       </c>
       <c r="M77" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N77" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O77" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P77" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q77" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R77" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18732,7 +18732,7 @@
         <v>600306</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E78" s="8">
         <v>6</v>
@@ -18759,22 +18759,22 @@
         <v>0</v>
       </c>
       <c r="M78" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N78" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O78" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P78" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q78" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R78" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18782,7 +18782,7 @@
         <v>600307</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E79" s="8">
         <v>6</v>
@@ -18809,22 +18809,22 @@
         <v>0</v>
       </c>
       <c r="M79" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N79" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O79" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P79" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q79" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R79" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -18832,7 +18832,7 @@
         <v>600308</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E80" s="8">
         <v>6</v>
@@ -18859,22 +18859,22 @@
         <v>0</v>
       </c>
       <c r="M80" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N80" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O80" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P80" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q80" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R80" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="3:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
